--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>44288</t>
+          <t>55211</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2470</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>3779</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7054</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>3424</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9261</t>
+          <t>4819</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2885</t>
+          <t>3301</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11059</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2856</t>
+          <t>3272</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>5744</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3170</t>
+          <t>3269</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>7928</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3027</t>
+          <t>3194</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5404</t>
+          <t>11099</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>3098</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8666</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2894</t>
+          <t>3429</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12430</t>
+          <t>2713</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>3394</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>3362</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>7854</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3084</t>
+          <t>3197</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3053</t>
+          <t>3580</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2198</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>3564</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>751</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>3550</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2192</t>
+          <t>984</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>3521</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3371</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>3513</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3957</t>
+          <t>1619</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2994</t>
+          <t>3465</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5525</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>3448</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5924</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>3428</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6040</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2947</t>
+          <t>3389</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6170</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>3359</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6592</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2935</t>
+          <t>3345</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6677</t>
+          <t>7120</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2933</t>
+          <t>3221</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6978</t>
+          <t>7160</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>3220</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7341</t>
+          <t>7440</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2919</t>
+          <t>3211</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8173</t>
+          <t>7471</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2902</t>
+          <t>3210</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8268</t>
+          <t>7474</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>3210</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8345</t>
+          <t>8059</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2899</t>
+          <t>3191</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9753</t>
+          <t>8127</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2877</t>
+          <t>3189</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10224</t>
+          <t>9062</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>3158</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10472</t>
+          <t>9223</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>3153</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12992</t>
+          <t>9539</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>3143</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>13647</t>
+          <t>10347</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2817</t>
+          <t>3118</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>13790</t>
+          <t>11426</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>3090</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13826</t>
+          <t>11453</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>3089</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13892</t>
+          <t>12629</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>3061</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>13874</t>
+          <t>12966</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>3052</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>14359</t>
+          <t>13276</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>3045</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>14733</t>
+          <t>15452</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2802</t>
+          <t>2996</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16032</t>
+          <t>16410</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2788</t>
+          <t>2979</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16354</t>
+          <t>18003</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2785</t>
+          <t>2949</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>18867</t>
+          <t>20375</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>2903</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>24256</t>
+          <t>30941</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2683</t>
+          <t>2726</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>28253</t>
+          <t>32409</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>2703</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>32677</t>
+          <t>34113</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>2677</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>43763</t>
+          <t>49784</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1665,17 +1665,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>44270</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,51 +1685,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>21194</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2888</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20953</t>
+          <t>19098</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2928</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20265</t>
+          <t>7646</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2735</t>
+          <t>3204</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>8652</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2950</t>
+          <t>3172</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>10283</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3027</t>
+          <t>3120</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>8853</t>
+          <t>10317</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3119</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9669</t>
+          <t>11447</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2878</t>
+          <t>3089</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10307</t>
+          <t>14532</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>3015</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10342</t>
+          <t>16694</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>2973</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>14281</t>
+          <t>20852</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2894</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>14688</t>
+          <t>23835</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2802</t>
+          <t>2840</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>16189</t>
+          <t>25679</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2786</t>
+          <t>2808</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>30705</t>
+          <t>2225</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2604</t>
+          <t>3422</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5453</t>
+          <t>6152</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2959</t>
+          <t>3254</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5462</t>
+          <t>8901</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2959</t>
+          <t>3163</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7040</t>
+          <t>9188</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>3154</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>13919</t>
+          <t>9662</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2813</t>
+          <t>3139</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>14925</t>
+          <t>11177</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>3096</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>16740</t>
+          <t>13094</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>3049</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>17413</t>
+          <t>16681</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2773</t>
+          <t>2974</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>17540</t>
+          <t>19579</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>2918</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>18003</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>2852</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>24512</t>
+          <t>25757</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2680</t>
+          <t>2807</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>27719</t>
+          <t>33659</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2684</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30539</t>
+          <t>33120</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2692</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>33656</t>
+          <t>41013</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2573</t>
+          <t>2580</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>34199</t>
+          <t>41955</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2568</t>
+          <t>2569</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>37781</t>
+          <t>45276</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2448,17 +2448,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>39007</t>
+          <t>46406</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2475,17 +2475,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>42271</t>
+          <t>46651</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2522</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>43145</t>
+          <t>46762</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,14 +2522,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>2521</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>46183</t>
+          <t>51890</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>2490</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>47021</t>
+          <t>51951</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2489</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>47358</t>
+          <t>52571</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>2486</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>52028</t>
+          <t>56690</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2460</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56592</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2460</t>
         </is>
       </c>
     </row>
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>13898</t>
+          <t>12086</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>3075</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>14644</t>
+          <t>16006</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>2986</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>19943</t>
+          <t>20956</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,14 +2846,14 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>2892</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>25872</t>
+          <t>23082</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>2854</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>34538</t>
+          <t>26674</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2565</t>
+          <t>2792</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>35413</t>
+          <t>34833</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>2666</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>40378</t>
+          <t>46768</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2521</t>
         </is>
       </c>
     </row>
@@ -2988,17 +2988,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>9043</t>
+          <t>16081</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>2984</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>23910</t>
+          <t>16857</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>2970</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>26702</t>
+          <t>21108</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2653</t>
+          <t>2889</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>31823</t>
+          <t>23417</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>2848</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>32809</t>
+          <t>27199</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>2784</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>33622</t>
+          <t>28784</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2759</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>34070</t>
+          <t>30543</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>2732</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>32079</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>2707</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>35566</t>
+          <t>36226</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>2646</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>35749</t>
+          <t>41182</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2552</t>
+          <t>2578</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>36368</t>
+          <t>42376</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2546</t>
+          <t>2564</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>36483</t>
+          <t>41813</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>2571</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>39724</t>
+          <t>42471</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2563</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>40746</t>
+          <t>41513</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>2574</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>42840</t>
+          <t>44243</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>2544</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>44839</t>
+          <t>45092</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2536</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>45103</t>
+          <t>49136</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2503</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>45632</t>
+          <t>52644</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2485</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>47051</t>
+          <t>53160</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2482</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>54795</t>
+          <t>53968</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2478</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>54973</t>
+          <t>57974</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>2450</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>57537</t>
+          <t>59545</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2448</t>
+          <t>2437</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>58705</t>
+          <t>61215</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Player-20372140</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,14 +3602,14 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2419</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>59092</t>
+          <t>61324</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>2417</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>68366</t>
+          <t>61430</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>56349880</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Messi</t>
+          <t>Player-20372140</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2416</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>69065</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56349880</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Messi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2055</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>75961</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>57446384</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>总有刁民想睡朕</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1996</t>
         </is>
       </c>
     </row>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3749,12 +3749,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3830,12 +3830,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3857,12 +3857,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3879,44 +3879,44 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>58215</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>34839</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,14 +3926,14 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2666</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>43365</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2553</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>56334</t>
+          <t>50717</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2496</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59560</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2437</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>82872</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>90273</t>
+          <t>74548</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Player-58839983</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>99283</t>
+          <t>81400</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>46248210</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Ajay</t>
+          <t>Player-58839983</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1811</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>120536</t>
+          <t>90311</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>46248210</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>Ajay</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1503</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>90860</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>140817</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>47533851</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Bibek</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>50742014</t>
+          <t>47533851</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"Aditya Naik"</t>
+          <t>Bibek</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4208,12 +4208,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>58635041</t>
+          <t>50742014</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Player-58635041</t>
+          <t>"Aditya Naik"</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>57339836</t>
+          <t>58635041</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Player-57339836</t>
+          <t>Player-58635041</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>58644547</t>
+          <t>57339836</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>RotaryPreparation39</t>
+          <t>Player-57339836</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4289,12 +4289,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>58689512</t>
+          <t>58644547</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Player-58689512</t>
+          <t>RotaryPreparation39</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58739866</t>
+          <t>58689512</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Player-58739866</t>
+          <t>Player-58689512</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>58739336</t>
+          <t>58739866</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Player-58739336</t>
+          <t>Player-58739866</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4370,17 +4370,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>58739336</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Player-58739336</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4392,17 +4392,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>43485</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,24 +4412,24 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>21097</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4439,24 +4439,24 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2889</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50668</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2496</t>
         </is>
       </c>
     </row>
@@ -4478,12 +4478,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4505,12 +4505,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4554,17 +4554,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>7448</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4574,7 +4574,34 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>55211</t>
+          <t>46018</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>2574</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3779</t>
+          <t>4124</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3424</t>
+          <t>3639</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4819</t>
+          <t>4547</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3301</t>
+          <t>3602</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>4805</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3272</t>
+          <t>3589</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>6105</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>3526</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7928</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3194</t>
+          <t>3496</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11099</t>
+          <t>9084</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3098</t>
+          <t>3401</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2135</t>
+          <t>9605</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>3383</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3394</t>
+          <t>3780</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3362</t>
+          <t>3616</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7854</t>
+          <t>6027</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3197</t>
+          <t>3530</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>6306</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3518</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3564</t>
+          <t>4242</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3550</t>
+          <t>3977</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3521</t>
+          <t>3892</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>878</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3513</t>
+          <t>3892</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1619</t>
+          <t>1038</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3465</t>
+          <t>3868</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>2272</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3448</t>
+          <t>3742</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2159</t>
+          <t>2446</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3428</t>
+          <t>3727</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3389</t>
+          <t>3693</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3359</t>
+          <t>3689</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>4367</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3345</t>
+          <t>3612</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>4779</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>3590</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>4885</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3585</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7440</t>
+          <t>5455</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>3555</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7471</t>
+          <t>5539</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>3551</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7474</t>
+          <t>5724</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>3543</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8059</t>
+          <t>6404</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3513</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8127</t>
+          <t>6747</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3189</t>
+          <t>3498</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9062</t>
+          <t>7578</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>3462</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9223</t>
+          <t>7862</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3153</t>
+          <t>3452</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9539</t>
+          <t>8215</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3143</t>
+          <t>3437</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10347</t>
+          <t>8911</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3118</t>
+          <t>3408</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11426</t>
+          <t>8985</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3090</t>
+          <t>3404</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11453</t>
+          <t>9617</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3089</t>
+          <t>3382</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12629</t>
+          <t>10540</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3061</t>
+          <t>3348</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>12966</t>
+          <t>10693</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>3342</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>13276</t>
+          <t>7718</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>3457</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15452</t>
+          <t>14078</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2996</t>
+          <t>3232</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16410</t>
+          <t>14766</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2979</t>
+          <t>3213</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18003</t>
+          <t>18440</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>3112</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20375</t>
+          <t>21747</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2903</t>
+          <t>3031</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30941</t>
+          <t>24627</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>2967</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>32409</t>
+          <t>36685</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2703</t>
+          <t>2726</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>34113</t>
+          <t>39461</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>49784</t>
+          <t>52888</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1692,7 +1692,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>21194</t>
+          <t>18322</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>3115</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19098</t>
+          <t>19237</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2928</t>
+          <t>3093</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7646</t>
+          <t>7033</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>3487</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8652</t>
+          <t>11281</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3321</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10283</t>
+          <t>11534</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>3312</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10317</t>
+          <t>12716</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3119</t>
+          <t>3275</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>11447</t>
+          <t>14875</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3089</t>
+          <t>3209</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>14532</t>
+          <t>15494</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>3192</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>16694</t>
+          <t>16756</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>3158</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20852</t>
+          <t>17093</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2894</t>
+          <t>3149</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>23835</t>
+          <t>19228</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2840</t>
+          <t>3093</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>25679</t>
+          <t>20088</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>3073</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2225</t>
+          <t>4438</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3422</t>
+          <t>3607</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6152</t>
+          <t>6440</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3254</t>
+          <t>3511</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8901</t>
+          <t>7631</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3163</t>
+          <t>3460</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9188</t>
+          <t>7929</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>3449</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9662</t>
+          <t>8228</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3139</t>
+          <t>3436</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>11177</t>
+          <t>11824</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3096</t>
+          <t>3303</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>13094</t>
+          <t>12215</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3290</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16681</t>
+          <t>17488</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2974</t>
+          <t>3137</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>19579</t>
+          <t>19183</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2918</t>
+          <t>3094</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>23158</t>
+          <t>22883</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>3002</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>25757</t>
+          <t>32422</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>2805</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>33659</t>
+          <t>32482</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>2804</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>33120</t>
+          <t>32810</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>2798</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>41013</t>
+          <t>33680</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>2782</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>41955</t>
+          <t>36752</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>2724</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>45276</t>
+          <t>39526</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2676</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>46406</t>
+          <t>43148</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>2615</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>46651</t>
+          <t>44492</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>2595</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>46762</t>
+          <t>46814</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>2563</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>51890</t>
+          <t>47498</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>2555</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>51951</t>
+          <t>48816</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>2538</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>52571</t>
+          <t>52767</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>56690</t>
+          <t>54556</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2490</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>56592</t>
+          <t>58640</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2454</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59164</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2448</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>12086</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3075</t>
+          <t>3258</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>16006</t>
+          <t>13335</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2819,14 +2819,14 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2986</t>
+          <t>3256</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20956</t>
+          <t>17821</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2846,14 +2846,14 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>3128</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>23082</t>
+          <t>21319</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2854</t>
+          <t>3042</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>26674</t>
+          <t>22343</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>3015</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>34833</t>
+          <t>28581</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2927,14 +2927,14 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2666</t>
+          <t>2881</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>46768</t>
+          <t>49428</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>2532</t>
         </is>
       </c>
     </row>
@@ -2988,17 +2988,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>16081</t>
+          <t>23142</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2984</t>
+          <t>2997</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>16857</t>
+          <t>25662</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>2943</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>21108</t>
+          <t>27076</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>2913</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>23417</t>
+          <t>29053</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2848</t>
+          <t>2871</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>27199</t>
+          <t>31431</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>2824</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>28784</t>
+          <t>32570</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>2802</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30543</t>
+          <t>29629</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2732</t>
+          <t>2859</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>32079</t>
+          <t>33308</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2788</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>36226</t>
+          <t>37218</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2646</t>
+          <t>2715</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>41182</t>
+          <t>39355</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>2679</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>42376</t>
+          <t>39541</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2564</t>
+          <t>2676</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>41813</t>
+          <t>42473</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2626</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>42471</t>
+          <t>43851</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>2604</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>41513</t>
+          <t>44368</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2596</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>44243</t>
+          <t>44807</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>2590</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>45092</t>
+          <t>52486</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2503</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>49136</t>
+          <t>53318</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>52644</t>
+          <t>53537</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2497</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>53160</t>
+          <t>56634</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>2472</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>53968</t>
+          <t>57295</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2466</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>57974</t>
+          <t>59483</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2450</t>
+          <t>2445</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>59545</t>
+          <t>60760</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>2430</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>61215</t>
+          <t>60959</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>Player-20372140</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2419</t>
+          <t>2428</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>61324</t>
+          <t>62631</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2417</t>
+          <t>2402</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>61430</t>
+          <t>63800</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Player-20372140</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2416</t>
+          <t>2376</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>69065</t>
+          <t>67506</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>56349880</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Messi</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>2174</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>75961</t>
+          <t>70496</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>57446384</t>
+          <t>56349880</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>总有刁民想睡朕</t>
+          <t>Messi</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>2077</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>73369</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>57446384</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>总有刁民想睡朕</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2037</t>
         </is>
       </c>
     </row>
@@ -3749,12 +3749,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3830,12 +3830,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3857,12 +3857,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3906,44 +3906,44 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>34839</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2666</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>43365</t>
+          <t>37965</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>2702</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>50717</t>
+          <t>41125</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2496</t>
+          <t>2648</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>59560</t>
+          <t>45398</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>2582</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>61985</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2413</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>74548</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>81400</t>
+          <t>77359</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Player-58839983</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,14 +4088,14 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>90311</t>
+          <t>90259</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4115,14 +4115,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1560</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>90860</t>
+          <t>95056</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4149,7 +4149,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>140817</t>
+          <t>154144</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4419,7 +4419,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>21097</t>
+          <t>13704</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4439,14 +4439,14 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>3243</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>50668</t>
+          <t>53627</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>46018</t>
+          <t>31497</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2927</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4124</t>
+          <t>4544</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3885</t>
+          <t>3770</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3639</t>
+          <t>3920</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4547</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3602</t>
+          <t>3916</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>5248</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3589</t>
+          <t>3826</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6105</t>
+          <t>8276</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3526</t>
+          <t>3668</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6816</t>
+          <t>9271</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>3622</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9084</t>
+          <t>10478</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3401</t>
+          <t>3570</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9605</t>
+          <t>11166</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3538</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3780</t>
+          <t>4147</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4286</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>3900</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6027</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3530</t>
+          <t>4329</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6306</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>4315</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>893</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4242</t>
+          <t>4226</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>1449</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3977</t>
+          <t>4137</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>2062</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3892</t>
+          <t>4063</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>2494</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3892</t>
+          <t>4020</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3868</t>
+          <t>3974</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3742</t>
+          <t>3963</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2446</t>
+          <t>5299</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3727</t>
+          <t>3823</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>5314</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3693</t>
+          <t>3822</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3044</t>
+          <t>5727</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3689</t>
+          <t>3799</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4367</t>
+          <t>6073</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3612</t>
+          <t>3781</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4779</t>
+          <t>6258</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3590</t>
+          <t>3772</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>6320</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>3767</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5455</t>
+          <t>6478</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3555</t>
+          <t>3759</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5539</t>
+          <t>7970</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3551</t>
+          <t>3684</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5724</t>
+          <t>8410</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3543</t>
+          <t>3663</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6404</t>
+          <t>8444</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3513</t>
+          <t>3661</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6747</t>
+          <t>8468</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>3660</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7578</t>
+          <t>9740</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3462</t>
+          <t>3601</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7862</t>
+          <t>10622</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3452</t>
+          <t>3564</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8215</t>
+          <t>11822</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3437</t>
+          <t>3512</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8911</t>
+          <t>17586</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3408</t>
+          <t>3305</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8985</t>
+          <t>18678</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3404</t>
+          <t>3275</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>19318</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3382</t>
+          <t>3256</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10540</t>
+          <t>20223</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>3229</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10693</t>
+          <t>26869</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3342</t>
+          <t>3038</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7718</t>
+          <t>43033</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3457</t>
+          <t>2677</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>14078</t>
+          <t>55111</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>14766</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,213 +1496,213 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18440</t>
+          <t>18249</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>3287</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>21747</t>
+          <t>13006</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3031</t>
+          <t>3465</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>24627</t>
+          <t>6773</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2967</t>
+          <t>3743</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>36685</t>
+          <t>6941</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>3735</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>39461</t>
+          <t>9946</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>3593</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>52888</t>
+          <t>12714</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3477</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>15162</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3384</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>18322</t>
+          <t>16168</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3115</t>
+          <t>3351</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19237</t>
+          <t>16666</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>3335</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7033</t>
+          <t>18896</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>3268</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>11281</t>
+          <t>19005</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>3265</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>11534</t>
+          <t>28451</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3312</t>
+          <t>2998</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>12716</t>
+          <t>831</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3275</t>
+          <t>4241</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>14875</t>
+          <t>4607</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3867</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>15494</t>
+          <t>4875</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3192</t>
+          <t>3849</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>16756</t>
+          <t>7285</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>3717</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>17093</t>
+          <t>8309</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3149</t>
+          <t>3667</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>19228</t>
+          <t>8484</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>3660</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20088</t>
+          <t>8898</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>3639</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4438</t>
+          <t>9788</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3607</t>
+          <t>3599</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6440</t>
+          <t>12445</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3511</t>
+          <t>3488</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7631</t>
+          <t>12692</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3460</t>
+          <t>3478</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7929</t>
+          <t>17957</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3449</t>
+          <t>3295</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>8228</t>
+          <t>18174</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>3289</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>11824</t>
+          <t>19063</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3303</t>
+          <t>3263</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12215</t>
+          <t>27875</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3290</t>
+          <t>3011</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>17488</t>
+          <t>34453</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3137</t>
+          <t>2858</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>19183</t>
+          <t>38503</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>54714516</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>ёмιいч</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3094</t>
+          <t>2771</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>22883</t>
+          <t>39225</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>2757</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>32422</t>
+          <t>41288</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>2713</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>32482</t>
+          <t>41340</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>2712</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>32810</t>
+          <t>44653</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>54714516</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ёмιいч</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2798</t>
+          <t>2646</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>33680</t>
+          <t>47599</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2782</t>
+          <t>2595</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>36752</t>
+          <t>47982</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>2589</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>39526</t>
+          <t>48320</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2676</t>
+          <t>2584</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>43148</t>
+          <t>49233</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2569</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>44492</t>
+          <t>53311</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>2518</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>46814</t>
+          <t>55520</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>47498</t>
+          <t>62572</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>2416</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>48816</t>
+          <t>62955</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2538</t>
+          <t>2408</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>52767</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>54556</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,61 +2630,61 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>58640</t>
+          <t>13279</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>3454</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>59164</t>
+          <t>12925</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2448</t>
+          <t>3468</t>
         </is>
       </c>
     </row>
@@ -2696,17 +2696,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2718,44 +2718,44 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>19469</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3251</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>13259</t>
+          <t>20438</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3258</t>
+          <t>3222</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>24151</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3112</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>13335</t>
+          <t>28757</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>2992</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>17821</t>
+          <t>53016</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>2521</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21319</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>22343</t>
+          <t>933</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>4217</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>28581</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3875</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>49428</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>3872</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>4736</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3860</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>23142</t>
+          <t>18116</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2997</t>
+          <t>3291</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>25662</t>
+          <t>26071</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2943</t>
+          <t>3060</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>27076</t>
+          <t>26159</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2913</t>
+          <t>3057</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>29053</t>
+          <t>28404</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2871</t>
+          <t>2999</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>31431</t>
+          <t>30713</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>2945</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>32570</t>
+          <t>31461</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2802</t>
+          <t>2927</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>29629</t>
+          <t>32150</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>2911</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>33308</t>
+          <t>32697</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,14 +3197,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2788</t>
+          <t>2898</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>37218</t>
+          <t>33503</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>39355</t>
+          <t>33694</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2679</t>
+          <t>2876</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>39541</t>
+          <t>36924</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2676</t>
+          <t>2803</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>42473</t>
+          <t>36731</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>2807</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>43851</t>
+          <t>39862</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2604</t>
+          <t>2743</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>44368</t>
+          <t>41467</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2709</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>44807</t>
+          <t>45080</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>2638</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>52486</t>
+          <t>46346</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>2615</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>53318</t>
+          <t>46826</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2607</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>53537</t>
+          <t>55686</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3474,17 +3474,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>56634</t>
+          <t>55974</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2472</t>
+          <t>2495</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>57295</t>
+          <t>59527</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2457</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>59483</t>
+          <t>59837</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2445</t>
+          <t>2454</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>60760</t>
+          <t>60166</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2430</t>
+          <t>2449</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>60959</t>
+          <t>60447</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Player-20372140</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2428</t>
+          <t>2445</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>62631</t>
+          <t>60851</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>2440</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>63800</t>
+          <t>60905</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2439</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>67506</t>
+          <t>61597</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>Player-20372140</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2174</t>
+          <t>2431</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>70496</t>
+          <t>62795</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>56349880</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Messi</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,14 +3710,14 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>2411</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>73369</t>
+          <t>66602</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2037</t>
+          <t>2271</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>37965</t>
+          <t>38871</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,14 +3953,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2702</t>
+          <t>2764</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>41125</t>
+          <t>44479</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3980,14 +3980,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2648</t>
+          <t>2649</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>45398</t>
+          <t>47505</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>2596</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>61985</t>
+          <t>62846</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2413</t>
+          <t>2410</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>77359</t>
+          <t>79714</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4095,7 +4095,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>90259</t>
+          <t>88438</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4115,14 +4115,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>1668</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>95056</t>
+          <t>98342</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4149,7 +4149,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>154144</t>
+          <t>165829</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4181,17 +4181,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>47533851</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Bibek</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4203,54 +4203,54 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>16552</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>50742014</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"Aditya Naik"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3338</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48663</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58635041</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Player-58635041</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2578</t>
         </is>
       </c>
     </row>
@@ -4262,17 +4262,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>57339836</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Player-57339836</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4289,17 +4289,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>58644547</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>RotaryPreparation39</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4316,17 +4316,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>58689512</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Player-58689512</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4343,17 +4343,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>58739866</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Player-58739866</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4370,17 +4370,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>58739336</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Player-58739336</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4392,17 +4392,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>65894</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,196 +4412,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>13704</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>9913517</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>"Kenny Chan"</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>3243</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>53627</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>6010122</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>"Edward Peng"</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2496</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>12648101</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>"player 198827"</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>9195340</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Namllllllik</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>15755724</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>"Last Good"</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>8850180</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>30624300</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>2317</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31497</t>
+          <t>33989</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>2962</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4544</t>
+          <t>4988</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3770</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>4080</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3838</t>
+          <t>5320</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3916</t>
+          <t>4073</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5248</t>
+          <t>9161</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3826</t>
+          <t>3843</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8276</t>
+          <t>10197</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3668</t>
+          <t>3789</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9271</t>
+          <t>11774</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3622</t>
+          <t>3712</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10478</t>
+          <t>12705</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>3668</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11166</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3538</t>
+          <t>4510</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>5557</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4147</t>
+          <t>4056</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>785</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>4571</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4329</t>
+          <t>4481</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4315</t>
+          <t>4458</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>2077</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4226</t>
+          <t>4364</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1449</t>
+          <t>2079</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4137</t>
+          <t>4364</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4063</t>
+          <t>4232</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>4156</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3974</t>
+          <t>4118</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3241</t>
+          <t>5466</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3963</t>
+          <t>4062</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5299</t>
+          <t>5491</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3823</t>
+          <t>4061</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5314</t>
+          <t>5490</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3822</t>
+          <t>4061</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5727</t>
+          <t>5609</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3799</t>
+          <t>4052</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6073</t>
+          <t>7971</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3781</t>
+          <t>3906</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6258</t>
+          <t>8467</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3772</t>
+          <t>3877</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6320</t>
+          <t>8552</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3767</t>
+          <t>3874</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>10298</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3759</t>
+          <t>3784</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7970</t>
+          <t>11367</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3684</t>
+          <t>3732</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8410</t>
+          <t>11750</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3663</t>
+          <t>3713</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8444</t>
+          <t>12866</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>3660</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8468</t>
+          <t>13797</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>3619</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9740</t>
+          <t>17802</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3601</t>
+          <t>3465</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10622</t>
+          <t>18213</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3564</t>
+          <t>3450</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11822</t>
+          <t>20655</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>3365</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>17586</t>
+          <t>25447</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3305</t>
+          <t>3204</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18678</t>
+          <t>38943</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3275</t>
+          <t>2835</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>19318</t>
+          <t>56862</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20223</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,132 +1388,132 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3229</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>26869</t>
+          <t>15859</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3038</t>
+          <t>3535</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>43033</t>
+          <t>18359</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>3445</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>55111</t>
+          <t>7257</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3949</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3887</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18249</t>
+          <t>9516</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3287</t>
+          <t>3825</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>13006</t>
+          <t>10588</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3465</t>
+          <t>3769</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6773</t>
+          <t>13051</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3743</t>
+          <t>3652</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6941</t>
+          <t>13584</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3735</t>
+          <t>3627</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9946</t>
+          <t>15465</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3593</t>
+          <t>3551</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>12714</t>
+          <t>18175</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>3451</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>15162</t>
+          <t>21871</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3384</t>
+          <t>3323</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>16168</t>
+          <t>27322</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3351</t>
+          <t>3147</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>16666</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3335</t>
+          <t>4629</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18896</t>
+          <t>890</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3268</t>
+          <t>4544</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>19005</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3265</t>
+          <t>4267</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>28451</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>4151</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>4801</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4241</t>
+          <t>4109</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4607</t>
+          <t>7169</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3867</t>
+          <t>3954</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4875</t>
+          <t>7174</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3849</t>
+          <t>3953</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7285</t>
+          <t>8224</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3717</t>
+          <t>3892</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>8309</t>
+          <t>7873</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3667</t>
+          <t>3912</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>8484</t>
+          <t>8921</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>3855</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8898</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3639</t>
+          <t>3659</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9788</t>
+          <t>13469</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3599</t>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>12445</t>
+          <t>19623</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3488</t>
+          <t>3400</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>12692</t>
+          <t>20716</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3478</t>
+          <t>3362</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>17957</t>
+          <t>21343</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3295</t>
+          <t>3340</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>18174</t>
+          <t>30074</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3289</t>
+          <t>3068</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>19063</t>
+          <t>35311</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3263</t>
+          <t>2927</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>27875</t>
+          <t>38563</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>54714516</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>ёмιいч</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>2845</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>34453</t>
+          <t>40893</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2858</t>
+          <t>2790</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>38503</t>
+          <t>41103</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>54714516</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ёмιいч</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>2785</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>39225</t>
+          <t>41236</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>2781</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>41288</t>
+          <t>42548</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>2750</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>41340</t>
+          <t>46050</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2712</t>
+          <t>2672</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>44653</t>
+          <t>48350</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2646</t>
+          <t>2625</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>47599</t>
+          <t>48725</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>2618</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>47982</t>
+          <t>50710</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2584</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>48320</t>
+          <t>54006</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>2533</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>49233</t>
+          <t>55845</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>2511</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>53311</t>
+          <t>63718</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>2409</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>55520</t>
+          <t>64579</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2390</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>62572</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2416</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>62955</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,78 +2576,78 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>12472</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3679</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>13595</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3627</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>13279</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3454</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>12925</t>
+          <t>19695</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3468</t>
+          <t>3398</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>22028</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3318</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>19469</t>
+          <t>23722</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3251</t>
+          <t>3260</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20438</t>
+          <t>28673</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3222</t>
+          <t>3108</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>24151</t>
+          <t>55258</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>2518</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>28757</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>53016</t>
+          <t>879</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>4547</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4383</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4217</t>
+          <t>4177</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4471</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>4128</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4519</t>
+          <t>4860</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3872</t>
+          <t>4106</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4736</t>
+          <t>4922</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3860</t>
+          <t>4101</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>18116</t>
+          <t>20944</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3008,14 +3008,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3291</t>
+          <t>3354</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>26071</t>
+          <t>25500</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>3202</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>26159</t>
+          <t>27412</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>3144</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>28404</t>
+          <t>27674</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>3136</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>30713</t>
+          <t>27943</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>3128</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>31461</t>
+          <t>31490</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>3026</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>32150</t>
+          <t>33038</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>2985</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>32697</t>
+          <t>34105</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2898</t>
+          <t>2958</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>33503</t>
+          <t>34205</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2955</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>33694</t>
+          <t>34412</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2876</t>
+          <t>2950</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>36924</t>
+          <t>34521</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>2947</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>36731</t>
+          <t>39225</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>2828</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>39862</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,14 +3332,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>2784</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>41467</t>
+          <t>43263</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3359,14 +3359,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>2733</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>45080</t>
+          <t>44157</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2638</t>
+          <t>2713</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>46346</t>
+          <t>44283</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2710</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>46826</t>
+          <t>47144</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2649</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>55686</t>
+          <t>51182</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,14 +3467,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2576</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>55974</t>
+          <t>53123</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2546</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>59527</t>
+          <t>55059</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>59837</t>
+          <t>57639</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2495</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>60166</t>
+          <t>58709</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2483</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>60447</t>
+          <t>60001</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2445</t>
+          <t>2467</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>60851</t>
+          <t>61047</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Player-20372140</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2453</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>60905</t>
+          <t>62564</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2429</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>61597</t>
+          <t>62600</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Player-20372140</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2431</t>
+          <t>2429</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>62795</t>
+          <t>62744</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>2426</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>66602</t>
+          <t>63563</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>57446384</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>总有刁民想睡朕</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2271</t>
+          <t>2412</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>63779</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2407</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3933,7 +3933,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>38871</t>
+          <t>43201</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,14 +3953,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>2735</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>44479</t>
+          <t>46132</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3980,14 +3980,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>2670</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>47505</t>
+          <t>49284</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2607</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>62846</t>
+          <t>64588</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2390</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>79714</t>
+          <t>78056</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4088,14 +4088,14 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2034</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>88438</t>
+          <t>89818</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4115,14 +4115,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>1693</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>98342</t>
+          <t>97907</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4142,14 +4142,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1530</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>165829</t>
+          <t>176621</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4203,7 +4203,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>16552</t>
+          <t>14465</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4223,14 +4223,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>3338</t>
+          <t>3590</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>48663</t>
+          <t>45436</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>2685</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>65894</t>
+          <t>64934</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2382</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>33989</t>
+          <t>34429</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>3046</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4988</t>
+          <t>5236</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>3914</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>4444</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5320</t>
+          <t>5550</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4073</t>
+          <t>4308</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9161</t>
+          <t>6086</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3843</t>
+          <t>4265</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10197</t>
+          <t>10482</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3789</t>
+          <t>3977</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11774</t>
+          <t>10756</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3712</t>
+          <t>3962</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12705</t>
+          <t>11925</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3668</t>
+          <t>3897</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>1431</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4744</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5557</t>
+          <t>6938</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>4198</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4571</t>
+          <t>4798</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4481</t>
+          <t>4791</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>891</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4458</t>
+          <t>4855</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>1795</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4364</t>
+          <t>4684</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2079</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4364</t>
+          <t>4677</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3296</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4232</t>
+          <t>4494</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4156</t>
+          <t>4411</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4686</t>
+          <t>4571</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4118</t>
+          <t>4388</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5466</t>
+          <t>4771</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>4371</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5491</t>
+          <t>5148</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4061</t>
+          <t>4339</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5490</t>
+          <t>5328</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4061</t>
+          <t>4325</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>6510</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>4230</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7971</t>
+          <t>8827</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3906</t>
+          <t>4073</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8467</t>
+          <t>8819</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3877</t>
+          <t>4073</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8552</t>
+          <t>9185</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3874</t>
+          <t>4050</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10298</t>
+          <t>9114</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3784</t>
+          <t>4055</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>11367</t>
+          <t>12288</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3732</t>
+          <t>3878</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11750</t>
+          <t>12827</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3713</t>
+          <t>3850</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12866</t>
+          <t>14019</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>3789</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>13797</t>
+          <t>15681</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3619</t>
+          <t>3714</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>17802</t>
+          <t>16938</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3465</t>
+          <t>3662</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>18213</t>
+          <t>18594</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>3595</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20655</t>
+          <t>21096</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3365</t>
+          <t>3498</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>25447</t>
+          <t>21330</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>3490</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>38943</t>
+          <t>41855</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>56862</t>
+          <t>58447</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1395,7 +1395,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15859</t>
+          <t>14914</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3535</t>
+          <t>3747</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>18359</t>
+          <t>18195</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3445</t>
+          <t>3610</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7257</t>
+          <t>7847</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3949</t>
+          <t>4136</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>8205</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>4112</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9516</t>
+          <t>9559</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>4026</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10588</t>
+          <t>11388</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3769</t>
+          <t>3925</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>13051</t>
+          <t>14742</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3652</t>
+          <t>3754</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>13584</t>
+          <t>15934</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3627</t>
+          <t>3701</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>15465</t>
+          <t>16488</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3551</t>
+          <t>3679</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>18175</t>
+          <t>20073</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3451</t>
+          <t>3538</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>21871</t>
+          <t>24861</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>3355</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>27322</t>
+          <t>27486</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3265</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4629</t>
+          <t>5084</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4544</t>
+          <t>4924</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4267</t>
+          <t>4564</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4219</t>
+          <t>4441</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4151</t>
+          <t>4397</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4801</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4263</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7169</t>
+          <t>6202</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3954</t>
+          <t>4254</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7174</t>
+          <t>7102</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3953</t>
+          <t>4187</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8224</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3892</t>
+          <t>4156</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7873</t>
+          <t>9616</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>4023</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>8921</t>
+          <t>11724</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3855</t>
+          <t>3908</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>12553</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>3864</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>13469</t>
+          <t>13496</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>3815</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>19623</t>
+          <t>17258</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>3647</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20716</t>
+          <t>17621</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3362</t>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21343</t>
+          <t>18055</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>3615</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30074</t>
+          <t>29233</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3068</t>
+          <t>3212</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>35311</t>
+          <t>30930</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>3158</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>38563</t>
+          <t>31716</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>54714516</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ёмιいч</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>3132</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>40893</t>
+          <t>36959</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>2972</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>41103</t>
+          <t>41913</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2785</t>
+          <t>2834</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>41236</t>
+          <t>43847</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>54714516</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>ёмιいч</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2781</t>
+          <t>2783</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>42548</t>
+          <t>44195</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2775</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>46050</t>
+          <t>46139</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2672</t>
+          <t>2725</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>48350</t>
+          <t>48394</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>2671</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>48725</t>
+          <t>49184</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2654</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>50710</t>
+          <t>49473</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>2647</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>54006</t>
+          <t>51824</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>2599</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>55845</t>
+          <t>55885</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>2533</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>63718</t>
+          <t>56412</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2525</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>64579</t>
+          <t>64979</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2390</t>
+          <t>2401</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>12472</t>
+          <t>15287</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>3731</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>13595</t>
+          <t>14544</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3627</t>
+          <t>3764</t>
         </is>
       </c>
     </row>
@@ -2664,17 +2664,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>19695</t>
+          <t>22507</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3398</t>
+          <t>3442</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>22028</t>
+          <t>22664</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3318</t>
+          <t>3436</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>23722</t>
+          <t>23399</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3407</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>28673</t>
+          <t>24378</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>3372</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>55258</t>
+          <t>29645</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>3199</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>31251</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3148</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>57452</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4547</t>
+          <t>2512</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4383</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3901</t>
+          <t>790</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4177</t>
+          <t>4881</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4530</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>4649</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4860</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4106</t>
+          <t>4536</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4922</t>
+          <t>2743</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>4560</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20944</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3354</t>
+          <t>4458</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>25500</t>
+          <t>5187</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3202</t>
+          <t>4336</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>27412</t>
+          <t>25737</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>3326</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>27674</t>
+          <t>27066</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,14 +3089,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>3278</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>27943</t>
+          <t>30209</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>3181</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>31490</t>
+          <t>33581</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>3071</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>33038</t>
+          <t>34848</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>3033</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>34105</t>
+          <t>34880</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>3032</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>34205</t>
+          <t>34931</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2955</t>
+          <t>3030</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>34412</t>
+          <t>35292</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2950</t>
+          <t>3019</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>34521</t>
+          <t>36404</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,14 +3278,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2947</t>
+          <t>2987</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>39225</t>
+          <t>36573</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2828</t>
+          <t>2982</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>41130</t>
+          <t>37654</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>2952</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>43263</t>
+          <t>42331</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>2823</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>44157</t>
+          <t>45066</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>2752</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>44283</t>
+          <t>47326</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2710</t>
+          <t>2694</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>47144</t>
+          <t>48422</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>2670</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>51182</t>
+          <t>53765</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2565</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>53123</t>
+          <t>53857</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,14 +3494,14 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2546</t>
+          <t>2563</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>55059</t>
+          <t>54447</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2554</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>57639</t>
+          <t>54985</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2546</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>58709</t>
+          <t>59979</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>2485</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>60001</t>
+          <t>60299</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Player-20372140</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2467</t>
+          <t>2481</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>61047</t>
+          <t>62381</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Player-20372140</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2453</t>
+          <t>2450</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>62564</t>
+          <t>62616</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2446</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>62600</t>
+          <t>63061</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2438</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>62744</t>
+          <t>64907</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2426</t>
+          <t>2402</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>63563</t>
+          <t>65026</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,14 +3737,14 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2412</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>63779</t>
+          <t>65659</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2407</t>
+          <t>2384</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>43201</t>
+          <t>46114</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2735</t>
+          <t>2726</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>46132</t>
+          <t>48584</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>2666</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>49284</t>
+          <t>51053</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2613</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>64588</t>
+          <t>66569</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2390</t>
+          <t>2359</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>78056</t>
+          <t>76989</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2034</t>
+          <t>2074</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>89818</t>
+          <t>100635</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>46248210</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ajay</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>1530</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>97907</t>
+          <t>189708</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,51 +4142,51 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>176621</t>
+          <t>14550</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>3763</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>28317</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>14465</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>3590</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>45436</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2685</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4262,12 +4262,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4289,12 +4289,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4365,17 +4365,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>63463</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,34 +4385,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>64934</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>2382</t>
+          <t>2432</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>34429</t>
+          <t>25716</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>3429</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>5519</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3914</t>
+          <t>5156</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4444</t>
+          <t>4568</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5550</t>
+          <t>5276</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4308</t>
+          <t>4556</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6086</t>
+          <t>6458</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4265</t>
+          <t>4454</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10482</t>
+          <t>9846</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3977</t>
+          <t>4196</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10756</t>
+          <t>11365</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3962</t>
+          <t>4103</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11925</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3897</t>
+          <t>4996</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>7564</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4744</t>
+          <t>4360</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6938</t>
+          <t>9744</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4198</t>
+          <t>4203</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>977</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4798</t>
+          <t>5120</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5064</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4855</t>
+          <t>5029</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1795</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4684</t>
+          <t>4934</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>2870</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4677</t>
+          <t>4799</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3405</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>4669</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4262</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4411</t>
+          <t>4609</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4571</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>4592</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4771</t>
+          <t>5293</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4371</t>
+          <t>4555</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5148</t>
+          <t>5824</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4339</t>
+          <t>4509</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5328</t>
+          <t>6018</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>4494</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6510</t>
+          <t>6205</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4230</t>
+          <t>4475</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8827</t>
+          <t>8234</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4073</t>
+          <t>4310</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8819</t>
+          <t>8642</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4073</t>
+          <t>4280</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9185</t>
+          <t>8736</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4050</t>
+          <t>4272</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9114</t>
+          <t>12207</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4055</t>
+          <t>4048</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12288</t>
+          <t>12455</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3878</t>
+          <t>4035</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12827</t>
+          <t>13716</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3850</t>
+          <t>3964</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>14019</t>
+          <t>15684</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3789</t>
+          <t>3863</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>15681</t>
+          <t>15712</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>3861</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>16938</t>
+          <t>16928</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3662</t>
+          <t>3805</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>18594</t>
+          <t>17941</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3595</t>
+          <t>3760</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>21096</t>
+          <t>23791</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>3509</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>21330</t>
+          <t>43911</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>2835</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>41855</t>
+          <t>59657</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>58447</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,51 +1361,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>15192</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3885</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14914</t>
+          <t>17850</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3747</t>
+          <t>3764</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>18195</t>
+          <t>7473</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>4367</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7847</t>
+          <t>9015</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4136</t>
+          <t>4253</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8205</t>
+          <t>10505</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4112</t>
+          <t>4153</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9559</t>
+          <t>11852</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4026</t>
+          <t>4072</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>11388</t>
+          <t>14572</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>3915</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>14742</t>
+          <t>16379</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3754</t>
+          <t>3831</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>15934</t>
+          <t>16877</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3806</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>16488</t>
+          <t>19488</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>3692</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20073</t>
+          <t>27850</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3538</t>
+          <t>3353</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>24861</t>
+          <t>29422</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>3298</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>27486</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3265</t>
+          <t>5363</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5084</t>
+          <t>5324</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4924</t>
+          <t>4744</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4685</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4441</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>4607</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4263</t>
+          <t>4515</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6202</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4254</t>
+          <t>4466</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7102</t>
+          <t>6838</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4187</t>
+          <t>4419</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>8524</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4156</t>
+          <t>4289</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9616</t>
+          <t>10053</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>4182</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11724</t>
+          <t>10512</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3908</t>
+          <t>4153</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>12553</t>
+          <t>11594</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3864</t>
+          <t>4089</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>13496</t>
+          <t>11728</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3815</t>
+          <t>4080</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>17258</t>
+          <t>18391</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3647</t>
+          <t>3740</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>17621</t>
+          <t>20863</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>18055</t>
+          <t>21150</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3615</t>
+          <t>3618</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>29233</t>
+          <t>29943</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3212</t>
+          <t>3282</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>30930</t>
+          <t>31785</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>3220</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>31716</t>
+          <t>37374</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3132</t>
+          <t>3033</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>36959</t>
+          <t>38784</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2972</t>
+          <t>2989</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>41913</t>
+          <t>41772</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>54714516</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>ёмιいч</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>2896</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>43847</t>
+          <t>42687</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>54714516</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ёмιいч</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2783</t>
+          <t>2871</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>44195</t>
+          <t>44039</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2775</t>
+          <t>2832</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>46139</t>
+          <t>45390</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2792</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>48394</t>
+          <t>45628</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2671</t>
+          <t>2785</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>49184</t>
+          <t>46252</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2654</t>
+          <t>2769</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>49473</t>
+          <t>49278</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>2690</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>51824</t>
+          <t>51150</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>2645</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>55885</t>
+          <t>51950</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>2628</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>56412</t>
+          <t>57167</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>2533</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>64979</t>
+          <t>66094</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>2395</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>15287</t>
+          <t>14894</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3731</t>
+          <t>3899</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>14544</t>
+          <t>15450</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3764</t>
+          <t>3873</t>
         </is>
       </c>
     </row>
@@ -2664,17 +2664,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>22507</t>
+          <t>20658</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3442</t>
+          <t>3640</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>22664</t>
+          <t>21348</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>3609</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>23399</t>
+          <t>22415</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>3566</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>24378</t>
+          <t>23169</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3372</t>
+          <t>3535</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>29645</t>
+          <t>28284</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>3337</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>31251</t>
+          <t>28184</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,14 +2819,14 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3148</t>
+          <t>3340</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>57452</t>
+          <t>57831</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>2524</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>5049</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4649</t>
+          <t>4794</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,14 +2954,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>4765</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4560</t>
+          <t>4652</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3780</t>
+          <t>5177</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4458</t>
+          <t>4566</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5187</t>
+          <t>5526</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>4533</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>25737</t>
+          <t>26093</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3326</t>
+          <t>3415</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>27066</t>
+          <t>31385</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3089,14 +3089,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3278</t>
+          <t>3233</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>30209</t>
+          <t>31555</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3181</t>
+          <t>3227</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>33581</t>
+          <t>33052</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3071</t>
+          <t>3177</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>34848</t>
+          <t>34930</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>3112</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>34880</t>
+          <t>36061</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>3074</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>34931</t>
+          <t>36632</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>3056</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>35292</t>
+          <t>37072</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>3043</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>36404</t>
+          <t>37705</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,14 +3278,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2987</t>
+          <t>3022</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>36573</t>
+          <t>39302</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>2974</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>37654</t>
+          <t>39629</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,14 +3332,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>2963</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>42331</t>
+          <t>44489</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3359,14 +3359,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>2817</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>45066</t>
+          <t>44564</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2752</t>
+          <t>2815</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>47326</t>
+          <t>44822</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>2808</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>48422</t>
+          <t>46461</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>2763</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>53765</t>
+          <t>48911</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2565</t>
+          <t>2700</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>53857</t>
+          <t>50019</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>2671</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>54447</t>
+          <t>53202</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>2602</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>54985</t>
+          <t>56026</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2546</t>
+          <t>2551</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>59979</t>
+          <t>56383</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2545</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>60299</t>
+          <t>60350</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Player-20372140</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2481</t>
+          <t>2495</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>62381</t>
+          <t>62978</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2450</t>
+          <t>2458</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>62616</t>
+          <t>62894</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,14 +3656,14 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2446</t>
+          <t>2459</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>63061</t>
+          <t>64164</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2438</t>
+          <t>2435</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>64907</t>
+          <t>65561</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>2408</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>65026</t>
+          <t>66807</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2376</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>65659</t>
+          <t>67349</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2384</t>
+          <t>2361</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>46114</t>
+          <t>47033</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3953,14 +3953,14 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>2748</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>48584</t>
+          <t>50485</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3980,14 +3980,14 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2666</t>
+          <t>2660</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>51053</t>
+          <t>54844</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>2571</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>66569</t>
+          <t>67909</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2359</t>
+          <t>2344</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>76989</t>
+          <t>77701</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4088,14 +4088,14 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2074</t>
+          <t>2089</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>100635</t>
+          <t>103728</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4115,14 +4115,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>1522</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>189708</t>
+          <t>203154</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4149,7 +4149,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>14550</t>
+          <t>11301</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>3763</t>
+          <t>4105</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>28317</t>
+          <t>20712</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3638</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>57525</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2528</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4365,7 +4365,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>63463</t>
+          <t>64832</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2432</t>
+          <t>2423</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25716</t>
+          <t>27378</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>3477</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5519</t>
+          <t>5827</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5156</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4568</t>
+          <t>5078</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5276</t>
+          <t>4842</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4556</t>
+          <t>4831</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6458</t>
+          <t>5893</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4454</t>
+          <t>4727</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9846</t>
+          <t>7791</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>4551</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11365</t>
+          <t>12333</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4103</t>
+          <t>4222</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>5321</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7564</t>
+          <t>8135</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4360</t>
+          <t>4522</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9744</t>
+          <t>9912</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4203</t>
+          <t>4389</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5120</t>
+          <t>5381</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5064</t>
+          <t>5336</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5029</t>
+          <t>5228</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4934</t>
+          <t>5211</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4799</t>
+          <t>5201</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4669</t>
+          <t>4880</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>4788</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>4836</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4592</t>
+          <t>4769</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5293</t>
+          <t>5589</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4555</t>
+          <t>4755</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5824</t>
+          <t>5687</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4509</t>
+          <t>4746</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6018</t>
+          <t>6477</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>4674</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6205</t>
+          <t>6679</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>4653</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8234</t>
+          <t>6987</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4310</t>
+          <t>4623</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8642</t>
+          <t>7469</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4280</t>
+          <t>4581</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8736</t>
+          <t>8081</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>4526</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12207</t>
+          <t>8993</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4048</t>
+          <t>4456</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12455</t>
+          <t>10292</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4035</t>
+          <t>4362</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>13716</t>
+          <t>12974</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3964</t>
+          <t>4180</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15684</t>
+          <t>13300</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3863</t>
+          <t>4156</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>15712</t>
+          <t>14455</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>4085</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>16928</t>
+          <t>16538</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3805</t>
+          <t>3973</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>17941</t>
+          <t>17617</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3760</t>
+          <t>3920</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>23791</t>
+          <t>18667</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3509</t>
+          <t>3872</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>43911</t>
+          <t>20162</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>3801</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>59657</t>
+          <t>30701</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"慶頴 謝"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3355</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>45872</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,78 +1361,78 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2835</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15192</t>
+          <t>60929</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3885</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>17850</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3764</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7473</t>
+          <t>18055</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4367</t>
+          <t>3900</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9015</t>
+          <t>16095</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4253</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10505</t>
+          <t>7265</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4153</t>
+          <t>4598</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>11852</t>
+          <t>9055</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4072</t>
+          <t>4450</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>14572</t>
+          <t>10947</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>4315</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16379</t>
+          <t>11133</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3831</t>
+          <t>4302</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>16877</t>
+          <t>12994</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3806</t>
+          <t>4178</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19488</t>
+          <t>15562</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>4021</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27850</t>
+          <t>15698</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>4013</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>29422</t>
+          <t>15776</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3298</t>
+          <t>4009</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>26033</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5363</t>
+          <t>3534</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>30740</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5324</t>
+          <t>3353</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4744</t>
+          <t>5624</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3897</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4685</t>
+          <t>5568</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4711</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4607</t>
+          <t>4945</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4515</t>
+          <t>4868</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4466</t>
+          <t>4760</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6838</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4419</t>
+          <t>4747</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8524</t>
+          <t>6769</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4289</t>
+          <t>4644</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10053</t>
+          <t>7991</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4182</t>
+          <t>4534</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10512</t>
+          <t>9558</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4153</t>
+          <t>4414</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>11594</t>
+          <t>10231</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4089</t>
+          <t>4367</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>11200</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>4297</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>18391</t>
+          <t>12948</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3740</t>
+          <t>4182</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20863</t>
+          <t>18021</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>3901</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21150</t>
+          <t>18829</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3618</t>
+          <t>3864</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>29943</t>
+          <t>21115</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3282</t>
+          <t>3755</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>31785</t>
+          <t>23749</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>37374</t>
+          <t>30696</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>3355</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>38784</t>
+          <t>33032</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2989</t>
+          <t>3271</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>41772</t>
+          <t>35831</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>54714516</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ёмιいч</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>3170</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>42687</t>
+          <t>37434</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2871</t>
+          <t>3112</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>44039</t>
+          <t>39906</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>54714516</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>ёмιいч</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>3024</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>45390</t>
+          <t>44189</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>2887</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>45628</t>
+          <t>44384</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2785</t>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>46252</t>
+          <t>45576</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2769</t>
+          <t>2845</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>49278</t>
+          <t>47001</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>2801</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>51150</t>
+          <t>47494</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2786</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>51950</t>
+          <t>48144</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>2768</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>57167</t>
+          <t>49847</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>2720</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>66094</t>
+          <t>52229</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2658</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52747</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2645</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>58951</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,61 +2576,61 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2527</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>14894</t>
+          <t>67229</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3899</t>
+          <t>2391</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>15450</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3873</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2642,17 +2642,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2664,17 +2664,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20658</t>
+          <t>15768</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3640</t>
+          <t>4010</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>21348</t>
+          <t>15389</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3609</t>
+          <t>4031</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>22415</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3566</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>23169</t>
+          <t>21435</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3535</t>
+          <t>3740</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>28284</t>
+          <t>22064</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3337</t>
+          <t>3711</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>28184</t>
+          <t>22914</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>3670</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>57831</t>
+          <t>24639</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>3593</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>26636</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3508</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>29087</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5049</t>
+          <t>3411</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>58414</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4794</t>
+          <t>2536</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4765</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4252</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4652</t>
+          <t>5392</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>5177</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4566</t>
+          <t>5070</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5526</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>5005</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>26093</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3415</t>
+          <t>4970</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>31385</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3233</t>
+          <t>4869</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>31555</t>
+          <t>26459</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3227</t>
+          <t>3516</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>33052</t>
+          <t>29631</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3177</t>
+          <t>3392</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>34930</t>
+          <t>34253</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>3225</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>36061</t>
+          <t>34805</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>3207</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>36632</t>
+          <t>35455</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>3184</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>37072</t>
+          <t>35998</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>3164</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>37705</t>
+          <t>37382</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3114</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>39302</t>
+          <t>37731</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2974</t>
+          <t>3101</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>39629</t>
+          <t>38083</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>3088</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>44489</t>
+          <t>40323</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2817</t>
+          <t>3010</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>44564</t>
+          <t>41983</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>2958</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>44822</t>
+          <t>43544</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2906</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>46461</t>
+          <t>46144</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2763</t>
+          <t>2827</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>48911</t>
+          <t>45874</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2835</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>50019</t>
+          <t>46912</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2671</t>
+          <t>2804</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>53202</t>
+          <t>50266</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2602</t>
+          <t>2708</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>56026</t>
+          <t>50890</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2551</t>
+          <t>2692</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>56383</t>
+          <t>55049</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>2595</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>60350</t>
+          <t>55587</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2585</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>62978</t>
+          <t>56419</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>2569</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>62894</t>
+          <t>57834</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2459</t>
+          <t>2545</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>64164</t>
+          <t>62266</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2487</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>65561</t>
+          <t>62989</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2476</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>66807</t>
+          <t>64353</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2454</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>67349</t>
+          <t>67314</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>2389</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>67924</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2372</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>68467</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2356</t>
         </is>
       </c>
     </row>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3857,12 +3857,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3933,71 +3933,71 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>47033</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>50485</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>54844</t>
+          <t>48815</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2749</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>67909</t>
+          <t>51112</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2686</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>57562</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2549</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>77701</t>
+          <t>69082</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>2337</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>103728</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>203154</t>
+          <t>76778</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,78 +4142,78 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2144</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>11301</t>
+          <t>105887</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>1522</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20712</t>
+          <t>215327</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>3638</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>57525</t>
+          <t>10913</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>4317</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>19121</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3849</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>57316</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2554</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>60819</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4365,27 +4365,81 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>64832</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>59182</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>10636651</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>"Ismail Aflou"</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2423</t>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2524</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27378</t>
+          <t>27762</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>3472</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5827</t>
+          <t>5818</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>2724</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4842</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5893</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7791</t>
+          <t>7862</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12333</t>
+          <t>12452</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8135</t>
+          <t>8222</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9912</t>
+          <t>10006</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1273</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5336</t>
+          <t>5331</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5228</t>
+          <t>5223</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1886</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5211</t>
+          <t>5214</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -801,17 +801,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4362</t>
+          <t>2839</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4880</t>
+          <t>5063</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4788</t>
+          <t>4407</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4836</t>
+          <t>4880</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>4862</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5589</t>
+          <t>4852</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>4836</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4746</t>
+          <t>4769</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6477</t>
+          <t>5635</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4674</t>
+          <t>4755</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6679</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4653</t>
+          <t>4738</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6987</t>
+          <t>6540</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4623</t>
+          <t>4674</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7469</t>
+          <t>6823</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4581</t>
+          <t>4645</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8081</t>
+          <t>7058</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>4623</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8993</t>
+          <t>7412</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4456</t>
+          <t>4591</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10292</t>
+          <t>8169</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4362</t>
+          <t>4526</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12974</t>
+          <t>9090</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4180</t>
+          <t>4456</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13300</t>
+          <t>9174</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4156</t>
+          <t>4449</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>14455</t>
+          <t>13116</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>4180</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>16538</t>
+          <t>13326</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3973</t>
+          <t>4165</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>17617</t>
+          <t>13439</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>4156</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>18667</t>
+          <t>16940</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3872</t>
+          <t>3962</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20162</t>
+          <t>17802</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3801</t>
+          <t>3920</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30701</t>
+          <t>18849</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"慶頴 謝"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>3872</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>45872</t>
+          <t>20347</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>3801</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>60929</t>
+          <t>30932</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"慶頴 謝"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3355</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>46035</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,78 +1415,78 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2835</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>18055</t>
+          <t>61040</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16095</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7265</t>
+          <t>18235</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4598</t>
+          <t>3900</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9055</t>
+          <t>16283</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4450</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10947</t>
+          <t>7323</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4315</t>
+          <t>4598</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>11133</t>
+          <t>7835</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4302</t>
+          <t>4553</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>12994</t>
+          <t>9252</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4178</t>
+          <t>4443</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>15562</t>
+          <t>11808</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4021</t>
+          <t>4265</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>15698</t>
+          <t>13423</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4013</t>
+          <t>4157</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>15776</t>
+          <t>15742</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>4021</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>26033</t>
+          <t>15945</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3534</t>
+          <t>4009</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30740</t>
+          <t>15986</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>4007</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>26396</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>3526</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>30971</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5568</t>
+          <t>3353</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3763</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4945</t>
+          <t>5624</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4473</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4868</t>
+          <t>5559</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5534</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4760</t>
+          <t>4943</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>4589</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4747</t>
+          <t>4861</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6769</t>
+          <t>5583</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4644</t>
+          <t>4760</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7991</t>
+          <t>5723</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4534</t>
+          <t>4747</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9558</t>
+          <t>6832</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4644</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10231</t>
+          <t>8167</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4367</t>
+          <t>4526</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>11200</t>
+          <t>9657</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4297</t>
+          <t>4414</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>12948</t>
+          <t>10333</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4182</t>
+          <t>4367</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>18021</t>
+          <t>10748</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3901</t>
+          <t>4334</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>18829</t>
+          <t>13088</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3864</t>
+          <t>4182</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21115</t>
+          <t>17918</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3755</t>
+          <t>3914</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>23749</t>
+          <t>18852</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>3871</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>30696</t>
+          <t>21311</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>3755</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>33032</t>
+          <t>23945</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>35831</t>
+          <t>30488</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3170</t>
+          <t>3371</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>37434</t>
+          <t>33354</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>3268</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>39906</t>
+          <t>36111</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>54714516</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ёмιいч</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3024</t>
+          <t>3167</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>44189</t>
+          <t>38371</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>3086</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>44384</t>
+          <t>40138</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>54714516</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>ёмιいч</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3024</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>45576</t>
+          <t>44357</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2887</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>47001</t>
+          <t>44786</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2801</t>
+          <t>2873</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>47494</t>
+          <t>45747</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2786</t>
+          <t>2845</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>48144</t>
+          <t>45809</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>2843</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>49847</t>
+          <t>47383</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>2794</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>52229</t>
+          <t>48163</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>2771</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>52747</t>
+          <t>48286</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2768</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>58951</t>
+          <t>49989</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2527</t>
+          <t>2719</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>67229</t>
+          <t>52884</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>2645</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>60649</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2504</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>67299</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,78 +2657,78 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2391</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>15768</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>15389</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4031</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>15936</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4010</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>21435</t>
+          <t>15563</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3740</t>
+          <t>4031</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>22064</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>22914</t>
+          <t>22160</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3670</t>
+          <t>3717</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>24639</t>
+          <t>23270</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3593</t>
+          <t>3662</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>26636</t>
+          <t>23454</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3508</t>
+          <t>3653</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>29087</t>
+          <t>24857</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3411</t>
+          <t>3593</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>58414</t>
+          <t>27130</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>3497</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>29777</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3396</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>58570</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>5392</t>
+          <t>2535</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>5070</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3268</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>5005</t>
+          <t>5384</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4970</t>
+          <t>5012</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>4470</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,14 +3089,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4869</t>
+          <t>4970</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>26459</t>
+          <t>26647</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3123,7 +3123,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>29631</t>
+          <t>29896</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3150,17 +3150,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>34253</t>
+          <t>34457</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3225</t>
+          <t>3228</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>34805</t>
+          <t>33875</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3207</t>
+          <t>3248</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>35455</t>
+          <t>35126</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>3205</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>35998</t>
+          <t>35925</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3164</t>
+          <t>3175</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>37382</t>
+          <t>36309</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3114</t>
+          <t>3160</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>37731</t>
+          <t>37415</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>3120</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>38083</t>
+          <t>37837</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,14 +3332,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3088</t>
+          <t>3106</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>40323</t>
+          <t>40537</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3366,7 +3366,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>41983</t>
+          <t>42208</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>2957</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>43544</t>
+          <t>44921</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2906</t>
+          <t>2869</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>46144</t>
+          <t>45407</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2827</t>
+          <t>2854</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>45874</t>
+          <t>45679</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,14 +3467,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>2846</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>46912</t>
+          <t>47084</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3501,7 +3501,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>50266</t>
+          <t>50406</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3528,7 +3528,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>50890</t>
+          <t>50035</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3548,14 +3548,14 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>2718</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>55049</t>
+          <t>55206</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3582,7 +3582,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>55587</t>
+          <t>55721</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3609,7 +3609,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>56419</t>
+          <t>56569</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>57834</t>
+          <t>57954</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3663,7 +3663,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>62266</t>
+          <t>62357</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3690,7 +3690,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>62989</t>
+          <t>63354</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3710,14 +3710,14 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2476</t>
+          <t>2472</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>64353</t>
+          <t>64440</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>67314</t>
+          <t>67378</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3771,7 +3771,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>67924</t>
+          <t>68013</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2372</t>
+          <t>2371</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>68467</t>
+          <t>68629</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2353</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>48815</t>
+          <t>48962</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4014,7 +4014,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>51112</t>
+          <t>51235</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4041,7 +4041,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>57562</t>
+          <t>57788</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2549</t>
+          <t>2547</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>69082</t>
+          <t>69151</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4122,7 +4122,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>76778</t>
+          <t>76902</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4149,7 +4149,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>105887</t>
+          <t>106033</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4176,7 +4176,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>215327</t>
+          <t>215867</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4203,7 +4203,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>10913</t>
+          <t>10821</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4223,14 +4223,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>4317</t>
+          <t>4329</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>19121</t>
+          <t>19309</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4257,7 +4257,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>57316</t>
+          <t>57448</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4284,7 +4284,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>60819</t>
+          <t>60922</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4419,7 +4419,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>59182</t>
+          <t>59519</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>2521</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27762</t>
+          <t>27654</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3472</t>
+          <t>3583</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5818</t>
+          <t>5884</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5078</t>
+          <t>5312</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>5129</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5239</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4727</t>
+          <t>5028</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7862</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4551</t>
+          <t>4969</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12452</t>
+          <t>9814</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4588</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>8802</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5321</t>
+          <t>4675</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8222</t>
+          <t>9125</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4522</t>
+          <t>4647</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10006</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4389</t>
+          <t>5744</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>845</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5381</t>
+          <t>5737</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5331</t>
+          <t>5687</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5223</t>
+          <t>5646</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1880</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5214</t>
+          <t>5597</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>5520</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2839</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5063</t>
+          <t>5508</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4407</t>
+          <t>2756</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4880</t>
+          <t>5335</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>5306</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4852</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4836</t>
+          <t>5243</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>5240</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5635</t>
+          <t>3538</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>5224</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4738</t>
+          <t>5216</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6540</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4674</t>
+          <t>5184</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6823</t>
+          <t>4915</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4645</t>
+          <t>5062</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7058</t>
+          <t>5190</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4623</t>
+          <t>5034</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7412</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4591</t>
+          <t>4983</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8169</t>
+          <t>5730</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>4978</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9090</t>
+          <t>6576</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4456</t>
+          <t>4886</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9174</t>
+          <t>7280</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4449</t>
+          <t>4809</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>13116</t>
+          <t>7840</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4180</t>
+          <t>4759</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13326</t>
+          <t>7967</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4165</t>
+          <t>4747</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13439</t>
+          <t>8533</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4156</t>
+          <t>4699</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>16940</t>
+          <t>10858</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3962</t>
+          <t>4511</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>17802</t>
+          <t>12656</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>4384</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18849</t>
+          <t>12755</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3872</t>
+          <t>4376</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20347</t>
+          <t>14108</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3801</t>
+          <t>4277</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30932</t>
+          <t>15393</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"慶頴 謝"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>4197</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>46035</t>
+          <t>16617</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>4123</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>61040</t>
+          <t>17377</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>4083</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>19667</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,132 +1469,132 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3967</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18235</t>
+          <t>32421</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"慶頴 謝"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>3394</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16283</t>
+          <t>47508</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>2839</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7323</t>
+          <t>47604</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4598</t>
+          <t>2835</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7835</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9252</t>
+          <t>18251</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4037</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>11808</t>
+          <t>15991</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4265</t>
+          <t>4159</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13423</t>
+          <t>7451</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4157</t>
+          <t>4793</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>15742</t>
+          <t>8070</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4021</t>
+          <t>4738</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>15945</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>4657</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>15986</t>
+          <t>11120</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4007</t>
+          <t>4493</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>26396</t>
+          <t>13684</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3526</t>
+          <t>4306</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30971</t>
+          <t>14749</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>4238</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>16203</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5624</t>
+          <t>4147</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>18994</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>4000</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3821</t>
+          <t>29696</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4943</t>
+          <t>3500</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>32677</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4861</t>
+          <t>3383</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5583</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4760</t>
+          <t>5930</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5723</t>
+          <t>938</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4747</t>
+          <t>5714</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6832</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4644</t>
+          <t>5241</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8167</t>
+          <t>4500</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>5108</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9657</t>
+          <t>6394</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4907</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10333</t>
+          <t>7171</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4367</t>
+          <t>4821</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10748</t>
+          <t>7783</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4334</t>
+          <t>4763</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>13088</t>
+          <t>8478</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4182</t>
+          <t>4703</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>17918</t>
+          <t>9723</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3914</t>
+          <t>4596</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>18852</t>
+          <t>9778</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3871</t>
+          <t>4591</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>21311</t>
+          <t>12880</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3755</t>
+          <t>4366</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>23945</t>
+          <t>17383</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>4082</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>30488</t>
+          <t>17910</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3371</t>
+          <t>4057</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>33354</t>
+          <t>22071</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3268</t>
+          <t>3845</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>36111</t>
+          <t>26533</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3167</t>
+          <t>3632</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>38371</t>
+          <t>29929</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3086</t>
+          <t>3492</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>40138</t>
+          <t>31352</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>54714516</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ёмιいч</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3024</t>
+          <t>3435</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>44357</t>
+          <t>37243</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>3209</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>44786</t>
+          <t>37451</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2873</t>
+          <t>3201</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>45747</t>
+          <t>39470</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>3125</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>45809</t>
+          <t>41953</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>3031</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>47383</t>
+          <t>42074</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2794</t>
+          <t>3026</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>48163</t>
+          <t>43493</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>54714516</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>ёмιいч</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>2976</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>48286</t>
+          <t>45337</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>2912</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>49989</t>
+          <t>47207</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>2850</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>52884</t>
+          <t>47460</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2841</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>60649</t>
+          <t>48484</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>2809</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>67299</t>
+          <t>48872</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>2796</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50099</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2759</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50994</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,61 +2711,61 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2732</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>15936</t>
+          <t>54853</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>2631</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>15563</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4031</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2777,17 +2777,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2799,17 +2799,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>22160</t>
+          <t>15960</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3717</t>
+          <t>4161</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>23270</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3662</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>23454</t>
+          <t>21290</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3653</t>
+          <t>3885</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>24857</t>
+          <t>22803</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3593</t>
+          <t>3808</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>27130</t>
+          <t>23731</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>3763</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>29777</t>
+          <t>25518</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3396</t>
+          <t>3682</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>58570</t>
+          <t>26249</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>3646</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>29392</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3512</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>57308</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>5384</t>
+          <t>2580</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3587</t>
+          <t>16544</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,14 +3089,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4970</t>
+          <t>4127</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>26647</t>
+          <t>25258</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3516</t>
+          <t>3694</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>29896</t>
+          <t>31451</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3392</t>
+          <t>3431</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>34457</t>
+          <t>31819</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>3416</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>33875</t>
+          <t>34404</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3248</t>
+          <t>3317</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>35126</t>
+          <t>34640</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>3308</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>35925</t>
+          <t>35171</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3175</t>
+          <t>3288</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>36309</t>
+          <t>36019</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3160</t>
+          <t>3256</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>37415</t>
+          <t>36075</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>3254</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>37837</t>
+          <t>36922</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>3221</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>40537</t>
+          <t>38516</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>3162</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>42208</t>
+          <t>40604</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>3082</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>44921</t>
+          <t>43460</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>2977</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>45407</t>
+          <t>44136</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2854</t>
+          <t>2953</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>45679</t>
+          <t>45960</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,14 +3467,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2846</t>
+          <t>2891</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>47084</t>
+          <t>46095</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>2887</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>50406</t>
+          <t>45970</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2891</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>50035</t>
+          <t>53447</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2718</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>55206</t>
+          <t>53572</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>2663</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>55721</t>
+          <t>57017</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3609,17 +3609,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>56569</t>
+          <t>57551</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>57954</t>
+          <t>57579</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>62357</t>
+          <t>57612</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>2574</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>63354</t>
+          <t>59411</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2472</t>
+          <t>2540</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>64440</t>
+          <t>60997</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2516</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>67378</t>
+          <t>64771</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,14 +3764,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2389</t>
+          <t>2464</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>68013</t>
+          <t>69122</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2371</t>
+          <t>2363</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>68629</t>
+          <t>69626</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2353</t>
+          <t>2349</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>48962</t>
+          <t>49325</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>2783</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>51235</t>
+          <t>49559</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2686</t>
+          <t>2776</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>57788</t>
+          <t>53001</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>2678</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>69151</t>
+          <t>62076</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>68484</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,14 +4115,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2381</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>76902</t>
+          <t>76723</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4142,14 +4142,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2144</t>
+          <t>2178</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>106033</t>
+          <t>108529</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>1516</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>215867</t>
+          <t>224564</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4203,7 +4203,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>10821</t>
+          <t>8576</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4223,14 +4223,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>4329</t>
+          <t>4695</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>19309</t>
+          <t>21987</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4257,7 +4257,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>57448</t>
+          <t>55591</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4277,14 +4277,14 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>2614</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>60922</t>
+          <t>61309</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2511</t>
         </is>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>59519</t>
+          <t>60146</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>2529</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27654</t>
+          <t>28062</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3583</t>
+          <t>3651</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>6289</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5312</t>
+          <t>5828</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4332</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5129</t>
+          <t>5398</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5028</t>
+          <t>5395</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4969</t>
+          <t>5214</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9814</t>
+          <t>8758</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4588</t>
+          <t>4854</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8802</t>
+          <t>8914</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4675</t>
+          <t>4838</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9125</t>
+          <t>10276</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4647</t>
+          <t>4719</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>6064</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>906</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5737</t>
+          <t>6001</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>929</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>5994</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5646</t>
+          <t>5909</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1381</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5597</t>
+          <t>5905</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>1780</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>5777</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>2507</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5508</t>
+          <t>5627</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2756</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>5604</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2955</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5306</t>
+          <t>5542</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3412</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5243</t>
+          <t>5455</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3433</t>
+          <t>3750</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5240</t>
+          <t>5437</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3538</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5224</t>
+          <t>5422</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3602</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5216</t>
+          <t>5417</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5184</t>
+          <t>5329</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4915</t>
+          <t>4990</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5062</t>
+          <t>5281</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5190</t>
+          <t>5224</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5034</t>
+          <t>5254</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>5328</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4983</t>
+          <t>5243</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5730</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4978</t>
+          <t>5157</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6576</t>
+          <t>6551</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4886</t>
+          <t>5090</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>7068</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4809</t>
+          <t>5029</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7840</t>
+          <t>7775</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4759</t>
+          <t>4953</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7967</t>
+          <t>8113</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4747</t>
+          <t>4919</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8533</t>
+          <t>8657</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4699</t>
+          <t>4864</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10858</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4511</t>
+          <t>4826</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12656</t>
+          <t>10357</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4384</t>
+          <t>4713</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12755</t>
+          <t>11378</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4376</t>
+          <t>4633</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14108</t>
+          <t>14457</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4277</t>
+          <t>4400</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15393</t>
+          <t>14804</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>4374</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>16617</t>
+          <t>16254</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4123</t>
+          <t>4274</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>17377</t>
+          <t>16403</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4083</t>
+          <t>4265</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>19667</t>
+          <t>16708</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3967</t>
+          <t>4247</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>32421</t>
+          <t>34817</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3394</t>
+          <t>3370</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>47508</t>
+          <t>46512</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2839</t>
+          <t>2914</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>47604</t>
+          <t>47790</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>2870</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>18251</t>
+          <t>17092</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>4224</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>15991</t>
+          <t>16991</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4159</t>
+          <t>4230</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7451</t>
+          <t>8027</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4793</t>
+          <t>4928</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8070</t>
+          <t>9116</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4738</t>
+          <t>4820</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>10241</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4657</t>
+          <t>4722</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>11120</t>
+          <t>10299</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4493</t>
+          <t>4717</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>13684</t>
+          <t>13593</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4306</t>
+          <t>4461</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>14749</t>
+          <t>16143</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>4281</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>16203</t>
+          <t>16201</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4147</t>
+          <t>4277</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>18994</t>
+          <t>18184</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>4166</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>29696</t>
+          <t>28260</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>3641</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>32677</t>
+          <t>34501</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5930</t>
+          <t>6250</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5714</t>
+          <t>6110</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5241</t>
+          <t>5357</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4500</t>
+          <t>5646</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5108</t>
+          <t>5205</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6394</t>
+          <t>5645</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4907</t>
+          <t>5205</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7171</t>
+          <t>6938</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4821</t>
+          <t>5043</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7783</t>
+          <t>8856</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>4843</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>8478</t>
+          <t>9099</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4703</t>
+          <t>4821</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9723</t>
+          <t>10048</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4596</t>
+          <t>4741</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9778</t>
+          <t>11672</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4591</t>
+          <t>4611</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12880</t>
+          <t>12125</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4366</t>
+          <t>4573</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>17383</t>
+          <t>17507</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>4202</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>17910</t>
+          <t>17560</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>4199</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>22071</t>
+          <t>21304</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3845</t>
+          <t>3993</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>26533</t>
+          <t>28478</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>29929</t>
+          <t>31507</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>3503</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>31352</t>
+          <t>32858</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3435</t>
+          <t>3447</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>37243</t>
+          <t>36482</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3301</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>37451</t>
+          <t>39291</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3201</t>
+          <t>3193</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>39470</t>
+          <t>39634</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3125</t>
+          <t>3180</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>41953</t>
+          <t>41945</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3031</t>
+          <t>3088</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>42074</t>
+          <t>43505</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2502,7 +2502,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>43493</t>
+          <t>43962</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,14 +2522,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2976</t>
+          <t>3008</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>45337</t>
+          <t>44592</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>2986</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>47207</t>
+          <t>48159</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2850</t>
+          <t>2857</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>47460</t>
+          <t>48339</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2841</t>
+          <t>2850</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>48484</t>
+          <t>48722</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2809</t>
+          <t>2836</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>48872</t>
+          <t>50259</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>2786</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>50099</t>
+          <t>51109</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50994</t>
+          <t>52434</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2732</t>
+          <t>2720</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>54853</t>
+          <t>55351</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>2642</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>58913</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2567</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2799,44 +2799,44 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>15960</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4161</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>15142</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4349</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21290</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3885</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>22803</t>
+          <t>21147</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3808</t>
+          <t>4001</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>23731</t>
+          <t>23780</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3763</t>
+          <t>3860</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>25518</t>
+          <t>23908</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3682</t>
+          <t>3853</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>26249</t>
+          <t>28343</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3646</t>
+          <t>3638</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>29392</t>
+          <t>28790</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>3617</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>57308</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>3565</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>56834</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2607</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>16544</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4127</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>25258</t>
+          <t>18070</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>4173</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>31451</t>
+          <t>27140</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3431</t>
+          <t>3693</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>31819</t>
+          <t>29046</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3416</t>
+          <t>3605</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>34404</t>
+          <t>30321</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3317</t>
+          <t>3552</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>34640</t>
+          <t>33276</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3308</t>
+          <t>3431</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>35171</t>
+          <t>33835</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>3408</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>36019</t>
+          <t>37393</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3265</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>36075</t>
+          <t>36668</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3254</t>
+          <t>3294</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>36922</t>
+          <t>37489</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>3261</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>38516</t>
+          <t>37804</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>3250</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>40604</t>
+          <t>39351</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>3190</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>43460</t>
+          <t>44760</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,14 +3413,14 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2977</t>
+          <t>2980</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>44136</t>
+          <t>45737</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2953</t>
+          <t>2942</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>45960</t>
+          <t>45861</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2938</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>46095</t>
+          <t>46099</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>2929</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>45970</t>
+          <t>46482</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2915</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>53447</t>
+          <t>47236</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>2889</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>53572</t>
+          <t>50013</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2663</t>
+          <t>2794</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>57017</t>
+          <t>53469</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2585</t>
+          <t>2690</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>57551</t>
+          <t>54428</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>57579</t>
+          <t>57463</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>2594</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>57612</t>
+          <t>57979</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2585</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>59411</t>
+          <t>58660</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>2571</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>60997</t>
+          <t>59756</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2550</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>64771</t>
+          <t>60778</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2531</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>69122</t>
+          <t>62703</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2363</t>
+          <t>2502</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>69626</t>
+          <t>70134</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2349</t>
+          <t>2352</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>70558</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2341</t>
         </is>
       </c>
     </row>
@@ -3857,12 +3857,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3938,12 +3938,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3987,44 +3987,44 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>49325</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2783</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>49559</t>
+          <t>49939</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2776</t>
+          <t>2796</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>53001</t>
+          <t>46740</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2678</t>
+          <t>2906</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>62076</t>
+          <t>53977</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2677</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>68484</t>
+          <t>62886</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2381</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>76723</t>
+          <t>69304</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2178</t>
+          <t>2377</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>108529</t>
+          <t>77948</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1516</t>
+          <t>2173</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>224564</t>
+          <t>110202</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,51 +4196,51 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1514</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>8576</t>
+          <t>231626</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>21987</t>
+          <t>9506</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>3849</t>
+          <t>4785</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>55591</t>
+          <t>23966</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>3849</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>61309</t>
+          <t>53323</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>2694</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>62114</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2511</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4419,27 +4419,54 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>60146</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>55773</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
           <t>10636651</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>"Ismail Aflou"</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2529</t>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2632</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28062</t>
+          <t>28356</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3651</t>
+          <t>3647</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6289</t>
+          <t>6369</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1557</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5828</t>
+          <t>5841</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4055</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5563</t>
+          <t>5660</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5214</t>
+          <t>5207</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8758</t>
+          <t>8826</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,17 +585,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8914</t>
+          <t>8824</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4838</t>
+          <t>4854</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10276</t>
+          <t>8990</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4719</t>
+          <t>4838</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,17 +666,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>952</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6001</t>
+          <t>5994</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>958</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5994</t>
+          <t>5992</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5905</t>
+          <t>5896</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5627</t>
+          <t>5640</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5604</t>
+          <t>5597</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3025</t>
+          <t>2979</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5542</t>
+          <t>5555</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>2991</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5455</t>
+          <t>5553</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3750</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5437</t>
+          <t>5455</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3854</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5422</t>
+          <t>5437</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5417</t>
+          <t>5408</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4990</t>
+          <t>5030</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5224</t>
+          <t>5259</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1071,7 +1071,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5328</t>
+          <t>5359</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1098,17 +1098,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5157</t>
+          <t>5180</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6551</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>5173</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7068</t>
+          <t>6598</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5029</t>
+          <t>5090</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7775</t>
+          <t>7109</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4953</t>
+          <t>5029</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8113</t>
+          <t>7826</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4919</t>
+          <t>4954</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8657</t>
+          <t>8481</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4864</t>
+          <t>4888</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>8771</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4826</t>
+          <t>4859</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10357</t>
+          <t>9117</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4713</t>
+          <t>4826</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11378</t>
+          <t>11466</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1341,17 +1341,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14457</t>
+          <t>14432</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>4409</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>14804</t>
+          <t>14577</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4374</t>
+          <t>4400</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>16254</t>
+          <t>14921</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4274</t>
+          <t>4374</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16403</t>
+          <t>16408</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4265</t>
+          <t>4274</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16708</t>
+          <t>16870</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>34817</t>
+          <t>35066</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3370</t>
+          <t>3369</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>46512</t>
+          <t>46657</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1530,7 +1530,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>47790</t>
+          <t>47910</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17092</t>
+          <t>17266</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1611,7 +1611,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>16991</t>
+          <t>17169</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8027</t>
+          <t>8101</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1665,17 +1665,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9116</t>
+          <t>8724</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4820</t>
+          <t>4864</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10241</t>
+          <t>9210</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4722</t>
+          <t>4820</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10299</t>
+          <t>10972</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4717</t>
+          <t>4670</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>13593</t>
+          <t>13383</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4461</t>
+          <t>4485</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>16143</t>
+          <t>16338</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4281</t>
+          <t>4278</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>16201</t>
+          <t>16425</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4277</t>
+          <t>4273</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>18184</t>
+          <t>18759</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4166</t>
+          <t>4144</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>28260</t>
+          <t>26907</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3641</t>
+          <t>3713</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>34501</t>
+          <t>34729</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6250</t>
+          <t>6242</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>6103</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4351</t>
+          <t>4382</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5646</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2016,7 +2016,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5645</t>
+          <t>5739</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5205</t>
+          <t>5197</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6938</t>
+          <t>6976</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2070,7 +2070,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8856</t>
+          <t>8927</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9099</t>
+          <t>9192</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2124,7 +2124,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10048</t>
+          <t>10126</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2151,7 +2151,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>11672</t>
+          <t>11758</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12125</t>
+          <t>11925</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4573</t>
+          <t>4597</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>17507</t>
+          <t>17687</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>17560</t>
+          <t>17918</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4199</t>
+          <t>4189</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>21304</t>
+          <t>19662</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>4092</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>28478</t>
+          <t>28697</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>31507</t>
+          <t>31403</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3503</t>
+          <t>3518</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>32858</t>
+          <t>32723</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3447</t>
+          <t>3462</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>36482</t>
+          <t>36921</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3301</t>
+          <t>3293</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>39291</t>
+          <t>39840</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3193</t>
+          <t>3180</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>39634</t>
+          <t>39904</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>3177</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>41945</t>
+          <t>42117</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2475,7 +2475,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>43505</t>
+          <t>43667</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2502,7 +2502,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>43962</t>
+          <t>44195</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,14 +2522,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>3005</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>44592</t>
+          <t>44744</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2556,7 +2556,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>48159</t>
+          <t>48279</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2583,7 +2583,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>48339</t>
+          <t>48470</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2610,7 +2610,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>48722</t>
+          <t>49321</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2836</t>
+          <t>2821</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>50259</t>
+          <t>50276</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2786</t>
+          <t>2789</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>51109</t>
+          <t>50382</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2786</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>52434</t>
+          <t>52164</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>2732</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>55351</t>
+          <t>55494</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>58913</t>
+          <t>59003</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2826,7 +2826,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>15142</t>
+          <t>15289</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2880,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>21147</t>
+          <t>21370</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4001</t>
+          <t>3999</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>23780</t>
+          <t>24035</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2927,14 +2927,14 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3860</t>
+          <t>3856</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>23908</t>
+          <t>24182</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2954,14 +2954,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>3848</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>28343</t>
+          <t>27161</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3638</t>
+          <t>3701</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>28790</t>
+          <t>28166</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3008,14 +3008,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3617</t>
+          <t>3655</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>30800</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3565</t>
+          <t>3543</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>56834</t>
+          <t>57008</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2606</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>18070</t>
+          <t>17306</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>4222</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>27140</t>
+          <t>27363</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3150,7 +3150,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>29046</t>
+          <t>29388</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>3601</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30321</t>
+          <t>30768</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3197,14 +3197,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>3544</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>33276</t>
+          <t>32879</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3224,14 +3224,14 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3431</t>
+          <t>3456</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>33835</t>
+          <t>34106</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3408</t>
+          <t>3406</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>37393</t>
+          <t>36208</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3265</t>
+          <t>3322</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>36668</t>
+          <t>36356</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3294</t>
+          <t>3316</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>37489</t>
+          <t>37482</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,14 +3332,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3261</t>
+          <t>3271</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>37804</t>
+          <t>38183</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3359,14 +3359,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>3244</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>39351</t>
+          <t>39766</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3190</t>
+          <t>3183</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>44760</t>
+          <t>44364</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>2999</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>45737</t>
+          <t>44905</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>2980</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>45861</t>
+          <t>45502</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2938</t>
+          <t>2957</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>46099</t>
+          <t>46008</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>2938</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>46482</t>
+          <t>46468</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,14 +3521,14 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2915</t>
+          <t>2921</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>47236</t>
+          <t>47408</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3555,7 +3555,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>50013</t>
+          <t>50515</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3575,14 +3575,14 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2794</t>
+          <t>2782</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>53469</t>
+          <t>50893</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3602,14 +3602,14 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>2769</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>54428</t>
+          <t>54829</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>2659</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>57463</t>
+          <t>56622</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3656,14 +3656,14 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2594</t>
+          <t>2614</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>57979</t>
+          <t>58066</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3690,7 +3690,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>58660</t>
+          <t>58827</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3710,14 +3710,14 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2570</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>59756</t>
+          <t>59882</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>60778</t>
+          <t>61431</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3764,14 +3764,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2523</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>62703</t>
+          <t>62812</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3798,7 +3798,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>70134</t>
+          <t>70220</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3825,7 +3825,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>70558</t>
+          <t>70904</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2341</t>
+          <t>2333</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>49939</t>
+          <t>50235</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,14 +4034,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>2791</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>46740</t>
+          <t>47137</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2906</t>
+          <t>2898</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>53977</t>
+          <t>54095</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4095,7 +4095,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>62886</t>
+          <t>62992</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4122,7 +4122,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>69304</t>
+          <t>67622</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4142,14 +4142,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>2421</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>77948</t>
+          <t>78063</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4176,7 +4176,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>110202</t>
+          <t>110360</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4203,7 +4203,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>231626</t>
+          <t>232088</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>9506</t>
+          <t>9598</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4257,7 +4257,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>23966</t>
+          <t>24166</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4284,7 +4284,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>53323</t>
+          <t>53441</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4311,7 +4311,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>62114</t>
+          <t>62239</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4446,7 +4446,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>55773</t>
+          <t>55914</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28356</t>
+          <t>25203</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3647</t>
+          <t>3927</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6369</t>
+          <t>6735</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5841</t>
+          <t>6208</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4091</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5398</t>
+          <t>5721</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5395</t>
+          <t>5607</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5660</t>
+          <t>5266</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5207</t>
+          <t>5495</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8826</t>
+          <t>7895</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4854</t>
+          <t>5155</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8824</t>
+          <t>8257</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4854</t>
+          <t>5114</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8990</t>
+          <t>9475</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4838</t>
+          <t>4989</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6064</t>
+          <t>6706</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5994</t>
+          <t>6490</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5992</t>
+          <t>6242</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5909</t>
+          <t>6216</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5896</t>
+          <t>6072</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5777</t>
+          <t>5998</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>2488</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5640</t>
+          <t>5918</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5597</t>
+          <t>5819</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2979</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5555</t>
+          <t>5828</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>3194</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5553</t>
+          <t>5788</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5455</t>
+          <t>5725</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3779</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5437</t>
+          <t>5695</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5408</t>
+          <t>5642</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4628</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5329</t>
+          <t>5614</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5030</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5281</t>
+          <t>5609</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5259</t>
+          <t>5378</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5254</t>
+          <t>5482</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5359</t>
+          <t>5535</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5243</t>
+          <t>5461</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5866</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5180</t>
+          <t>5417</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>6333</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>5359</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6598</t>
+          <t>6362</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5090</t>
+          <t>5355</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7109</t>
+          <t>6831</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5029</t>
+          <t>5292</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7826</t>
+          <t>7442</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4954</t>
+          <t>5211</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8481</t>
+          <t>7518</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>5203</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8771</t>
+          <t>7911</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4859</t>
+          <t>5153</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9117</t>
+          <t>8068</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4826</t>
+          <t>5135</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11466</t>
+          <t>9839</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4633</t>
+          <t>4956</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14432</t>
+          <t>9914</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4409</t>
+          <t>4950</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>14577</t>
+          <t>13355</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>4660</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14921</t>
+          <t>15321</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4374</t>
+          <t>4509</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16408</t>
+          <t>16695</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4274</t>
+          <t>4419</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16870</t>
+          <t>16672</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4247</t>
+          <t>4420</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>35066</t>
+          <t>32740</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3369</t>
+          <t>3570</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>46657</t>
+          <t>41497</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2914</t>
+          <t>3199</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>47910</t>
+          <t>48195</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>2914</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17266</t>
+          <t>17608</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4224</t>
+          <t>4364</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>17169</t>
+          <t>17815</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4230</t>
+          <t>4350</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8101</t>
+          <t>7521</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4928</t>
+          <t>5203</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8724</t>
+          <t>8618</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4864</t>
+          <t>5072</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9210</t>
+          <t>9410</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4820</t>
+          <t>4994</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10972</t>
+          <t>10420</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4670</t>
+          <t>4901</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>13383</t>
+          <t>14139</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>4596</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>16338</t>
+          <t>16178</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4278</t>
+          <t>4452</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>16425</t>
+          <t>16777</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4273</t>
+          <t>4414</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>18759</t>
+          <t>19044</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4144</t>
+          <t>4280</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>26907</t>
+          <t>31232</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3713</t>
+          <t>3638</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>34729</t>
+          <t>37036</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6242</t>
+          <t>6485</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>904</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6103</t>
+          <t>6301</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4382</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5357</t>
+          <t>5783</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>5072</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5205</t>
+          <t>5521</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>5699</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5197</t>
+          <t>5439</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6976</t>
+          <t>7244</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5043</t>
+          <t>5236</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8927</t>
+          <t>8609</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4843</t>
+          <t>5074</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9192</t>
+          <t>9011</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4821</t>
+          <t>5030</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10126</t>
+          <t>10147</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>4930</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>11758</t>
+          <t>11276</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4611</t>
+          <t>4829</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>11925</t>
+          <t>13696</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4597</t>
+          <t>4632</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>17687</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4202</t>
+          <t>4414</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>17918</t>
+          <t>17167</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>4391</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>19662</t>
+          <t>21823</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4092</t>
+          <t>4115</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>28697</t>
+          <t>30989</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>3648</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>31403</t>
+          <t>33987</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>3515</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>32723</t>
+          <t>35018</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3462</t>
+          <t>3470</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>36921</t>
+          <t>37341</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3293</t>
+          <t>3370</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>39840</t>
+          <t>40848</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>3226</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>39904</t>
+          <t>41486</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3177</t>
+          <t>3199</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>42117</t>
+          <t>44052</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2475,7 +2475,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>43667</t>
+          <t>45121</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>3041</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>44195</t>
+          <t>45390</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>54714516</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ёмιいч</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>3030</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>44744</t>
+          <t>47322</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>54714516</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>ёмιいч</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2986</t>
+          <t>2951</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>48279</t>
+          <t>48922</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>2889</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>48470</t>
+          <t>49017</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2850</t>
+          <t>2885</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>49321</t>
+          <t>49647</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2821</t>
+          <t>2860</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>50276</t>
+          <t>49706</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2789</t>
+          <t>2858</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>50382</t>
+          <t>52190</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2786</t>
+          <t>2772</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>52164</t>
+          <t>55244</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2732</t>
+          <t>2684</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>55494</t>
+          <t>57107</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,14 +2738,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2642</t>
+          <t>2634</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>59003</t>
+          <t>60405</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>2563</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>15289</t>
+          <t>16148</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4349</t>
+          <t>4454</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>21370</t>
+          <t>20228</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>4208</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>24035</t>
+          <t>21917</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3856</t>
+          <t>4110</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>24182</t>
+          <t>25132</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,14 +2954,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3848</t>
+          <t>3930</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>27161</t>
+          <t>26616</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3851</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>28166</t>
+          <t>28872</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3008,14 +3008,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3655</t>
+          <t>3741</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30800</t>
+          <t>30779</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3543</t>
+          <t>3657</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>57008</t>
+          <t>47505</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2943</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>17306</t>
+          <t>15659</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4485</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>27363</t>
+          <t>24951</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3693</t>
+          <t>3941</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>29388</t>
+          <t>29244</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3601</t>
+          <t>3723</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30768</t>
+          <t>30659</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>3662</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>32879</t>
+          <t>32595</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3456</t>
+          <t>3576</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>34106</t>
+          <t>32965</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3406</t>
+          <t>3560</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>36208</t>
+          <t>37111</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,14 +3278,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3322</t>
+          <t>3380</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>36356</t>
+          <t>37589</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3316</t>
+          <t>3359</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>37482</t>
+          <t>38182</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>3335</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>38183</t>
+          <t>39472</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3244</t>
+          <t>3281</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>39766</t>
+          <t>40110</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3183</t>
+          <t>3254</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>44364</t>
+          <t>40240</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>3249</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>44905</t>
+          <t>41106</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>3216</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>45502</t>
+          <t>43152</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>3126</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>46008</t>
+          <t>44180</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2938</t>
+          <t>3082</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>46468</t>
+          <t>44433</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,14 +3521,14 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>3072</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>47408</t>
+          <t>45836</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>3012</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>50515</t>
+          <t>46950</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2782</t>
+          <t>2966</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>50893</t>
+          <t>51913</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2769</t>
+          <t>2782</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>54829</t>
+          <t>52380</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2659</t>
+          <t>2766</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>56622</t>
+          <t>56240</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2656</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>58066</t>
+          <t>57754</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,14 +3683,14 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2585</t>
+          <t>2619</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>58827</t>
+          <t>59936</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3710,14 +3710,14 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2570</t>
+          <t>2572</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>59882</t>
+          <t>61154</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>2548</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>61431</t>
+          <t>62680</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2523</t>
+          <t>2522</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>62812</t>
+          <t>62963</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>2517</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>70220</t>
+          <t>71230</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2351</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>70904</t>
+          <t>72419</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2333</t>
+          <t>2317</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>50235</t>
+          <t>48571</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,14 +4034,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2791</t>
+          <t>2901</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>47137</t>
+          <t>45815</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2898</t>
+          <t>3013</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>54095</t>
+          <t>54748</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4088,14 +4088,14 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>2698</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>62992</t>
+          <t>62096</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4115,14 +4115,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2531</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>67622</t>
+          <t>69070</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4142,14 +4142,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2409</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>78063</t>
+          <t>77869</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2173</t>
+          <t>2197</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>110360</t>
+          <t>112907</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1506</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>232088</t>
+          <t>241131</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>9598</t>
+          <t>6988</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4250,14 +4250,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>4785</t>
+          <t>5270</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>24166</t>
+          <t>26643</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4284,7 +4284,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>53441</t>
+          <t>52048</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4304,14 +4304,14 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>2777</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>62239</t>
+          <t>63337</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4446,7 +4446,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>55914</t>
+          <t>55707</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>2670</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25203</t>
+          <t>26790</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3927</t>
+          <t>3926</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6735</t>
+          <t>6771</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>957</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6208</t>
+          <t>6566</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3639</t>
+          <t>2605</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>6141</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4444</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5607</t>
+          <t>6000</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5266</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5495</t>
+          <t>5995</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7895</t>
+          <t>6935</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5155</t>
+          <t>5484</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8257</t>
+          <t>6186</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5114</t>
+          <t>5592</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9475</t>
+          <t>8744</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4989</t>
+          <t>5233</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6706</t>
+          <t>6669</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>796</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6490</t>
+          <t>6615</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6242</t>
+          <t>6487</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6216</t>
+          <t>6458</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1474</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>6418</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5998</t>
+          <t>6313</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2156</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5918</t>
+          <t>6243</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2996</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5819</t>
+          <t>6167</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5828</t>
+          <t>6103</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3194</t>
+          <t>3481</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5788</t>
+          <t>5987</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3606</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5725</t>
+          <t>5965</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3803</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5695</t>
+          <t>5930</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5642</t>
+          <t>5928</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5614</t>
+          <t>5878</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4427</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5609</t>
+          <t>5847</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5378</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5482</t>
+          <t>5680</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>5659</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5461</t>
+          <t>5670</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5866</t>
+          <t>5703</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5417</t>
+          <t>5664</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6333</t>
+          <t>5986</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5359</t>
+          <t>5621</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6362</t>
+          <t>6048</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5355</t>
+          <t>5613</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6831</t>
+          <t>6062</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5292</t>
+          <t>5611</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7442</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5211</t>
+          <t>5602</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7518</t>
+          <t>6362</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5203</t>
+          <t>5569</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7911</t>
+          <t>7658</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5153</t>
+          <t>5376</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8068</t>
+          <t>7767</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5135</t>
+          <t>5361</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9839</t>
+          <t>8067</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>5316</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9914</t>
+          <t>9351</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>5165</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13355</t>
+          <t>13982</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>4742</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15321</t>
+          <t>15858</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4509</t>
+          <t>4594</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16695</t>
+          <t>17008</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4419</t>
+          <t>4516</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16672</t>
+          <t>17919</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>4463</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>32740</t>
+          <t>34624</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>3556</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>41497</t>
+          <t>42729</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1530,7 +1530,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>48195</t>
+          <t>49193</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17608</t>
+          <t>13547</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4364</t>
+          <t>4781</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>17815</t>
+          <t>19021</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4350</t>
+          <t>4397</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7521</t>
+          <t>7872</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5203</t>
+          <t>5345</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8618</t>
+          <t>8812</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5072</t>
+          <t>5224</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9410</t>
+          <t>9015</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4994</t>
+          <t>5200</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10420</t>
+          <t>11260</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4901</t>
+          <t>4985</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>14139</t>
+          <t>13031</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4596</t>
+          <t>4825</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>16178</t>
+          <t>16348</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4557</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>16777</t>
+          <t>17860</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4466</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19044</t>
+          <t>19373</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4280</t>
+          <t>4374</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>31232</t>
+          <t>29921</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3638</t>
+          <t>3776</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>37036</t>
+          <t>38399</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6485</t>
+          <t>6859</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6301</t>
+          <t>6493</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3243</t>
+          <t>4784</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5783</t>
+          <t>5786</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5072</t>
+          <t>5087</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5746</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5699</t>
+          <t>5175</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>5734</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7244</t>
+          <t>7589</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>5384</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8609</t>
+          <t>8423</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5074</t>
+          <t>5272</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9011</t>
+          <t>8977</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5030</t>
+          <t>5204</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10147</t>
+          <t>9354</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4930</t>
+          <t>5165</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>11276</t>
+          <t>11257</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>4986</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>13696</t>
+          <t>13153</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4632</t>
+          <t>4814</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>15861</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4593</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>17167</t>
+          <t>16468</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4391</t>
+          <t>4549</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>21823</t>
+          <t>20991</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4115</t>
+          <t>4276</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30989</t>
+          <t>30535</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>3745</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>33987</t>
+          <t>32631</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3648</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>35018</t>
+          <t>32852</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3470</t>
+          <t>3637</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>37341</t>
+          <t>33307</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3370</t>
+          <t>3614</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>40848</t>
+          <t>35046</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3226</t>
+          <t>3537</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>41486</t>
+          <t>36404</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>3473</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>44052</t>
+          <t>41707</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3088</t>
+          <t>3244</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>45121</t>
+          <t>45216</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3041</t>
+          <t>3088</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>45390</t>
+          <t>48163</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,14 +2522,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>2956</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>47322</t>
+          <t>48165</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2549,14 +2549,14 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2951</t>
+          <t>2956</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>48922</t>
+          <t>49346</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>2908</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>49017</t>
+          <t>49351</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2885</t>
+          <t>2907</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>49647</t>
+          <t>49722</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,14 +2630,14 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2860</t>
+          <t>2893</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>49706</t>
+          <t>49906</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2858</t>
+          <t>2886</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>52190</t>
+          <t>50722</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2772</t>
+          <t>2853</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>55244</t>
+          <t>56027</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>2683</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>57107</t>
+          <t>58055</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,14 +2738,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>2631</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>60405</t>
+          <t>61262</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>2561</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>16148</t>
+          <t>16018</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4454</t>
+          <t>4584</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20228</t>
+          <t>23032</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4208</t>
+          <t>4147</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>21917</t>
+          <t>24731</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2927,14 +2927,14 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>4044</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>25132</t>
+          <t>25499</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2954,14 +2954,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3930</t>
+          <t>4000</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>26616</t>
+          <t>27990</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3851</t>
+          <t>3866</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>28872</t>
+          <t>30134</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3008,14 +3008,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3741</t>
+          <t>3766</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30779</t>
+          <t>31129</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3035,14 +3035,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3657</t>
+          <t>3717</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>47505</t>
+          <t>41436</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2943</t>
+          <t>3256</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>15659</t>
+          <t>16219</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>4567</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>24951</t>
+          <t>25422</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3941</t>
+          <t>4005</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>29244</t>
+          <t>28938</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3723</t>
+          <t>3820</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30659</t>
+          <t>31520</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,14 +3197,14 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3662</t>
+          <t>3698</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>32595</t>
+          <t>32131</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3224,14 +3224,14 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3576</t>
+          <t>3671</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>32965</t>
+          <t>33440</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3560</t>
+          <t>3608</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>37111</t>
+          <t>36943</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3380</t>
+          <t>3448</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>37589</t>
+          <t>37395</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3359</t>
+          <t>3427</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>38182</t>
+          <t>38640</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3335</t>
+          <t>3372</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>39472</t>
+          <t>38942</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,14 +3359,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3281</t>
+          <t>3358</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>40110</t>
+          <t>39732</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3254</t>
+          <t>3326</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>40240</t>
+          <t>40492</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>3294</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>41106</t>
+          <t>41511</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3252</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>43152</t>
+          <t>42440</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>3212</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>44180</t>
+          <t>44021</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>3140</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>44433</t>
+          <t>45280</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3072</t>
+          <t>3084</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>45836</t>
+          <t>45363</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,14 +3548,14 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>3081</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>46950</t>
+          <t>47361</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3575,14 +3575,14 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2966</t>
+          <t>2993</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>51913</t>
+          <t>52072</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3602,14 +3602,14 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2782</t>
+          <t>2806</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>52380</t>
+          <t>52436</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2766</t>
+          <t>2793</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>56240</t>
+          <t>57264</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3656,14 +3656,14 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>2651</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>57754</t>
+          <t>58974</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>2609</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>59936</t>
+          <t>60929</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2572</t>
+          <t>2567</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>61154</t>
+          <t>61041</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,14 +3737,14 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>2565</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>62680</t>
+          <t>63791</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3764,14 +3764,14 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>2515</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>62963</t>
+          <t>64484</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>2504</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>71230</t>
+          <t>72042</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3818,14 +3818,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2351</t>
+          <t>2348</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>73224</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2315</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>48571</t>
+          <t>49781</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4034,14 +4034,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>2891</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>45815</t>
+          <t>46832</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3015</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>54748</t>
+          <t>55757</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4088,14 +4088,14 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2698</t>
+          <t>2692</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>62096</t>
+          <t>61497</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4115,14 +4115,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>2556</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>69070</t>
+          <t>69917</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4142,14 +4142,14 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2404</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>77869</t>
+          <t>77143</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2197</t>
+          <t>2227</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>112907</t>
+          <t>114171</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4203,7 +4203,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>241131</t>
+          <t>248217</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>6988</t>
+          <t>5928</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4250,14 +4250,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>5270</t>
+          <t>5629</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>26643</t>
+          <t>28319</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4284,7 +4284,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>52048</t>
+          <t>51374</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4304,14 +4304,14 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2777</t>
+          <t>2828</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>63337</t>
+          <t>64037</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4446,7 +4446,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>55707</t>
+          <t>56449</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>2672</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26790</t>
+          <t>27309</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3926</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6771</t>
+          <t>7247</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6566</t>
+          <t>6927</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6502</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>6353</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3424</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5995</t>
+          <t>6061</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6935</t>
+          <t>6927</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5484</t>
+          <t>5703</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6186</t>
+          <t>7308</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5592</t>
+          <t>5632</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8744</t>
+          <t>7421</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5233</t>
+          <t>5610</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>7026</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6615</t>
+          <t>7008</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>769</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6487</t>
+          <t>6922</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>839</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6458</t>
+          <t>6894</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6418</t>
+          <t>6753</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6313</t>
+          <t>6735</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2156</t>
+          <t>2164</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>6513</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>2417</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6167</t>
+          <t>6442</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6103</t>
+          <t>6435</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>2934</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5987</t>
+          <t>6333</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3622</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5965</t>
+          <t>6238</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3837</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5930</t>
+          <t>6236</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5928</t>
+          <t>6185</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4161</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5878</t>
+          <t>6115</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>6103</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5680</t>
+          <t>6040</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5659</t>
+          <t>4801</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5670</t>
+          <t>6019</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5703</t>
+          <t>4836</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>6013</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5986</t>
+          <t>5078</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5621</t>
+          <t>5982</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6048</t>
+          <t>4773</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5613</t>
+          <t>6022</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6062</t>
+          <t>5532</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5611</t>
+          <t>5917</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6282</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5602</t>
+          <t>5809</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6362</t>
+          <t>6487</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5569</t>
+          <t>5777</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7658</t>
+          <t>6838</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5376</t>
+          <t>5718</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7767</t>
+          <t>7152</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5361</t>
+          <t>5664</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8067</t>
+          <t>7641</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5316</t>
+          <t>5566</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9351</t>
+          <t>9560</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5165</t>
+          <t>5310</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13982</t>
+          <t>12238</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4742</t>
+          <t>5060</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15858</t>
+          <t>14642</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4827</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>17008</t>
+          <t>16041</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4516</t>
+          <t>4707</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>17919</t>
+          <t>17318</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4463</t>
+          <t>4622</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>34624</t>
+          <t>36937</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"慶頴 謝"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3556</t>
+          <t>3526</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>42729</t>
+          <t>50271</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>2914</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>49193</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,51 +1550,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2914</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>10476</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5223</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>13547</t>
+          <t>19067</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>4519</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19021</t>
+          <t>7563</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>5583</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7872</t>
+          <t>9332</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5345</t>
+          <t>5333</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8812</t>
+          <t>9965</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5224</t>
+          <t>5269</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9015</t>
+          <t>11888</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5200</t>
+          <t>5094</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>11260</t>
+          <t>13389</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4985</t>
+          <t>4943</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>13031</t>
+          <t>16861</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4825</t>
+          <t>4650</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>16348</t>
+          <t>17892</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4557</t>
+          <t>4586</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>17860</t>
+          <t>18968</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4466</t>
+          <t>4524</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19373</t>
+          <t>27399</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4374</t>
+          <t>3990</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>29921</t>
+          <t>39966</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>3383</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>38399</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>7128</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>1114</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6859</t>
+          <t>6804</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6493</t>
+          <t>6061</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4784</t>
+          <t>4908</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5786</t>
+          <t>6005</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5087</t>
+          <t>5265</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5746</t>
+          <t>5953</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5175</t>
+          <t>5436</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5734</t>
+          <t>5930</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7589</t>
+          <t>7747</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5384</t>
+          <t>5551</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8423</t>
+          <t>9516</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5272</t>
+          <t>5314</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>8977</t>
+          <t>10086</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5260</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9354</t>
+          <t>10729</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5165</t>
+          <t>5199</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>11257</t>
+          <t>14092</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4986</t>
+          <t>4874</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>13153</t>
+          <t>15256</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4814</t>
+          <t>4772</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>15861</t>
+          <t>17008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>4640</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>16468</t>
+          <t>20884</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>4408</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20991</t>
+          <t>23546</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4276</t>
+          <t>4226</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30535</t>
+          <t>23823</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3745</t>
+          <t>4207</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>32631</t>
+          <t>30097</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>3859</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>32852</t>
+          <t>34406</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3637</t>
+          <t>3648</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>33307</t>
+          <t>35152</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>3610</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>35046</t>
+          <t>36505</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3537</t>
+          <t>3546</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>36404</t>
+          <t>39017</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>3426</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>41707</t>
+          <t>42920</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3244</t>
+          <t>3258</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>45216</t>
+          <t>46748</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3088</t>
+          <t>3074</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>48163</t>
+          <t>47500</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>3037</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>48165</t>
+          <t>45742</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>54714516</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ёмιいч</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>3124</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>49346</t>
+          <t>48677</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>54714516</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>ёмιいч</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2908</t>
+          <t>2984</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>49351</t>
+          <t>49722</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2907</t>
+          <t>2938</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>49722</t>
+          <t>50051</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,14 +2630,14 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2893</t>
+          <t>2924</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>49906</t>
+          <t>50102</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2921</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>50722</t>
+          <t>51868</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2853</t>
+          <t>2852</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>56027</t>
+          <t>52887</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2683</t>
+          <t>2815</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>58055</t>
+          <t>56336</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>2704</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>61262</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2799,44 +2799,44 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>15869</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4721</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>16018</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4584</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>21755</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4351</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>23032</t>
+          <t>23206</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4147</t>
+          <t>4250</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>24731</t>
+          <t>24648</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4044</t>
+          <t>4155</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>25499</t>
+          <t>27280</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3996</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>27990</t>
+          <t>31677</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3866</t>
+          <t>3784</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>30134</t>
+          <t>34784</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3766</t>
+          <t>3629</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>31129</t>
+          <t>35468</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3717</t>
+          <t>3595</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>41436</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>15828</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>25163202</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"sam yang"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4725</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>16219</t>
+          <t>25089</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4567</t>
+          <t>4128</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>25422</t>
+          <t>29688</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>3877</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>28938</t>
+          <t>30721</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3820</t>
+          <t>3828</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>31520</t>
+          <t>31368</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3698</t>
+          <t>3797</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>32131</t>
+          <t>33075</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3671</t>
+          <t>3714</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>33440</t>
+          <t>36625</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>3540</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>36943</t>
+          <t>37238</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3448</t>
+          <t>3512</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>37395</t>
+          <t>37514</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3427</t>
+          <t>3497</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>38640</t>
+          <t>37686</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,14 +3332,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3372</t>
+          <t>3489</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>38942</t>
+          <t>37882</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3358</t>
+          <t>3479</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>39732</t>
+          <t>39702</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3326</t>
+          <t>3394</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>40492</t>
+          <t>42153</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3294</t>
+          <t>3290</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>41511</t>
+          <t>42756</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3265</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>42440</t>
+          <t>42888</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3212</t>
+          <t>3259</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>44021</t>
+          <t>45974</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>3111</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>45280</t>
+          <t>46608</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3084</t>
+          <t>3080</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>45363</t>
+          <t>46971</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3081</t>
+          <t>3063</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>47361</t>
+          <t>51133</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>2881</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>52072</t>
+          <t>53892</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2780</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>52436</t>
+          <t>54045</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>2776</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>57264</t>
+          <t>61086</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>2582</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>58974</t>
+          <t>61396</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>60929</t>
+          <t>61811</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3717,7 +3717,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>61041</t>
+          <t>62346</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2565</t>
+          <t>2556</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>63791</t>
+          <t>65565</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>64484</t>
+          <t>73119</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>2339</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>72042</t>
+          <t>74457</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2348</t>
+          <t>2303</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>73224</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2315</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3857,12 +3857,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3938,12 +3938,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3987,44 +3987,44 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50262</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2915</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>49781</t>
+          <t>47330</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3045</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>46832</t>
+          <t>57114</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>2680</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>55757</t>
+          <t>62353</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>2556</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>61497</t>
+          <t>69979</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>2422</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>69917</t>
+          <t>75811</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>2271</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>77143</t>
+          <t>113681</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2227</t>
+          <t>1524</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>114171</t>
+          <t>181743</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1027</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>248217</t>
+          <t>256812</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>5928</t>
+          <t>6258</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4250,14 +4250,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>5629</t>
+          <t>5813</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>28319</t>
+          <t>30296</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4284,7 +4284,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>51374</t>
+          <t>50193</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4304,14 +4304,14 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2828</t>
+          <t>2918</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>64037</t>
+          <t>64851</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4446,7 +4446,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>56449</t>
+          <t>56018</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2672</t>
+          <t>2713</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27309</t>
+          <t>28154</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -423,7 +423,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>85</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7247</t>
+          <t>7205</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>847</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>6903</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6502</t>
+          <t>6495</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2846</t>
+          <t>2942</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6353</t>
+          <t>6376</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6061</t>
+          <t>6362</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>5912</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5703</t>
+          <t>5900</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7308</t>
+          <t>7566</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5625</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7421</t>
+          <t>7593</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5610</t>
+          <t>5620</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7026</t>
+          <t>7113</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7008</t>
+          <t>6994</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6922</t>
+          <t>6992</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>877</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -747,17 +747,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>919</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6753</t>
+          <t>6880</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6735</t>
+          <t>6850</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2164</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6513</t>
+          <t>6810</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2417</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6442</t>
+          <t>6773</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6435</t>
+          <t>6530</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6333</t>
+          <t>6427</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3433</t>
+          <t>2389</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6238</t>
+          <t>6489</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3447</t>
+          <t>3286</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6236</t>
+          <t>6306</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3734</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6185</t>
+          <t>6293</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4153</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6115</t>
+          <t>6289</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6103</t>
+          <t>6253</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6040</t>
+          <t>6156</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4801</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6019</t>
+          <t>6140</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4836</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6013</t>
+          <t>6128</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5078</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5982</t>
+          <t>6107</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4773</t>
+          <t>4664</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>6081</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5532</t>
+          <t>4741</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5917</t>
+          <t>6071</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6282</t>
+          <t>4873</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5809</t>
+          <t>6051</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6487</t>
+          <t>4997</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>28749280</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>㊥老船⛵⛵</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5777</t>
+          <t>6032</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6838</t>
+          <t>5308</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5718</t>
+          <t>5991</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7152</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>5896</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7641</t>
+          <t>5994</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5887</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9560</t>
+          <t>6681</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5310</t>
+          <t>5780</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12238</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5060</t>
+          <t>5724</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14642</t>
+          <t>7904</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4827</t>
+          <t>5566</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16041</t>
+          <t>10076</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4707</t>
+          <t>5302</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>17318</t>
+          <t>11647</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>5156</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>36937</t>
+          <t>12162</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3526</t>
+          <t>5108</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>50271</t>
+          <t>15145</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2914</t>
+          <t>4827</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>18026</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,105 +1550,105 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4622</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10476</t>
+          <t>31017</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5223</t>
+          <t>3859</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>19067</t>
+          <t>50786</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4519</t>
+          <t>2914</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7563</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5583</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>9332</t>
+          <t>11025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5333</t>
+          <t>5215</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9965</t>
+          <t>16878</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>4691</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>11888</t>
+          <t>7967</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5094</t>
+          <t>5558</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>13389</t>
+          <t>9813</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4943</t>
+          <t>5326</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>16861</t>
+          <t>10042</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4650</t>
+          <t>5304</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>17892</t>
+          <t>12490</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4586</t>
+          <t>5074</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>18968</t>
+          <t>14504</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>4880</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>27399</t>
+          <t>16719</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>4702</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>39966</t>
+          <t>17049</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>4679</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>17578</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>4648</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>28056</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>4000</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4512</t>
+          <t>40729</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6061</t>
+          <t>3383</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4908</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>6665</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5265</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>28749280</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥老船⛵⛵</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5953</t>
+          <t>6248</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5436</t>
+          <t>5796</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5930</t>
+          <t>5917</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7747</t>
+          <t>7952</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5551</t>
+          <t>5559</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9516</t>
+          <t>9770</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5314</t>
+          <t>5330</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10086</t>
+          <t>10724</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>5243</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10729</t>
+          <t>11489</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5199</t>
+          <t>5174</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>14092</t>
+          <t>14862</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4874</t>
+          <t>4850</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>15256</t>
+          <t>15968</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4772</t>
+          <t>4758</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>17008</t>
+          <t>16543</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>4714</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20884</t>
+          <t>19286</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4408</t>
+          <t>4551</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>23546</t>
+          <t>19993</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4226</t>
+          <t>4514</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>23823</t>
+          <t>20342</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4207</t>
+          <t>4495</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>30097</t>
+          <t>31078</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3859</t>
+          <t>3856</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>34406</t>
+          <t>32718</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>3777</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>35152</t>
+          <t>35153</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>3648</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>36505</t>
+          <t>36872</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>3564</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>39017</t>
+          <t>38576</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3426</t>
+          <t>3483</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>42920</t>
+          <t>40090</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3258</t>
+          <t>3411</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>46748</t>
+          <t>42101</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,14 +2495,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>47500</t>
+          <t>47193</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>3079</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>45742</t>
+          <t>47319</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,14 +2549,14 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3124</t>
+          <t>3074</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>48677</t>
+          <t>49306</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2984</t>
+          <t>2979</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>49722</t>
+          <t>49540</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2603,14 +2603,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2938</t>
+          <t>2968</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>50051</t>
+          <t>50229</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,14 +2630,14 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2924</t>
+          <t>2938</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>50102</t>
+          <t>51184</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>2899</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>51868</t>
+          <t>52743</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2838</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>52887</t>
+          <t>53436</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>2814</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>56336</t>
+          <t>56294</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2704</t>
+          <t>2720</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>15869</t>
+          <t>16441</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2853,7 +2853,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21755</t>
+          <t>21490</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4351</t>
+          <t>4417</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>23206</t>
+          <t>23914</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>4248</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>24648</t>
+          <t>25353</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2934,7 +2934,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>27280</t>
+          <t>27086</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>4052</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>31677</t>
+          <t>30094</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3784</t>
+          <t>3900</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>34784</t>
+          <t>32861</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3629</t>
+          <t>3769</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>35468</t>
+          <t>34870</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3595</t>
+          <t>3662</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>15828</t>
+          <t>15258</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3089,14 +3089,14 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4725</t>
+          <t>4817</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>25089</t>
+          <t>26110</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>4109</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>29688</t>
+          <t>30673</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3877</t>
+          <t>3874</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30721</t>
+          <t>30692</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3828</t>
+          <t>3873</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>31368</t>
+          <t>31362</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3797</t>
+          <t>3841</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>33075</t>
+          <t>32033</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"慶頴 謝"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>3811</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>36625</t>
+          <t>34079</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3540</t>
+          <t>3703</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>37238</t>
+          <t>34230</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>3696</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>37514</t>
+          <t>37672</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>3523</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>37686</t>
+          <t>38044</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3489</t>
+          <t>3507</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>37882</t>
+          <t>38523</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3479</t>
+          <t>3485</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>39702</t>
+          <t>38984</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3394</t>
+          <t>3461</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>42153</t>
+          <t>39700</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3290</t>
+          <t>3428</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>42756</t>
+          <t>43185</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3265</t>
+          <t>3275</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>42888</t>
+          <t>43278</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3259</t>
+          <t>3271</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>45974</t>
+          <t>44555</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3111</t>
+          <t>3213</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>46608</t>
+          <t>44599</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>3211</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>46971</t>
+          <t>46629</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3063</t>
+          <t>3108</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>51133</t>
+          <t>47529</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3063</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>53892</t>
+          <t>51146</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>2901</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>54045</t>
+          <t>52957</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2776</t>
+          <t>2830</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>61086</t>
+          <t>54506</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>2777</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>61396</t>
+          <t>61278</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>2586</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>61811</t>
+          <t>61140</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>2589</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>62346</t>
+          <t>62055</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>2571</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>65565</t>
+          <t>62695</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2558</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>73119</t>
+          <t>62903</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2339</t>
+          <t>2554</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>74457</t>
+          <t>73666</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2336</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>74808</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2307</t>
         </is>
       </c>
     </row>
@@ -3857,12 +3857,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3938,12 +3938,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3987,44 +3987,44 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>50262</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2915</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>47330</t>
+          <t>50860</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>2912</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>57114</t>
+          <t>44830</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,24 +4061,24 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2680</t>
+          <t>3199</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>62353</t>
+          <t>57703</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4088,24 +4088,24 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>2676</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>69979</t>
+          <t>62796</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4115,24 +4115,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2422</t>
+          <t>2556</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>75811</t>
+          <t>70839</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2271</t>
+          <t>2411</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>113681</t>
+          <t>75619</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>2287</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>181743</t>
+          <t>114670</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>1524</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>256812</t>
+          <t>125896</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,78 +4223,78 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1438</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>6258</t>
+          <t>184709</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>5813</t>
+          <t>1027</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>30296</t>
+          <t>262447</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>3849</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>50193</t>
+          <t>4659</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2918</t>
+          <t>6081</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>64851</t>
+          <t>31197</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,24 +4331,24 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>3849</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50693</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2918</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>65272</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2511</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4446,27 +4446,81 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>56018</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>57090</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
           <t>10636651</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>"Ismail Aflou"</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2713</t>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2695</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28154</t>
+          <t>25251</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>4203</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26424998</t>
+          <t>22497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Smok3y 1nOnly"</t>
+          <t>xixihahagggᶻᵍˣ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7205</t>
+          <t>6828</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>2281</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6940556</t>
+          <t>1820342</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
+          <t>摸鱼者三战</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6903</t>
+          <t>6717</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2362</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22497</t>
+          <t>1951758</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>xixihahagggᶻᵍˣ</t>
+          <t>我來找你了</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6495</t>
+          <t>6303</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11783968</t>
+          <t>3477306</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>F---119</t>
+          <t>"MeGa Tsai"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6376</t>
+          <t>6374</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>1769</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31217211</t>
+          <t>3946814</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>解憂雜貨鋪㊥</t>
+          <t>"小瑩 潘"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6362</t>
+          <t>6879</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5912</t>
+          <t>9319</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>4229136</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>"totoro wu"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>5488</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7566</t>
+          <t>7164</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21665473</t>
+          <t>6510348</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Dog Gamedesiger"</t>
+          <t>Bonpoisson</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>5851</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7593</t>
+          <t>830</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43800641</t>
+          <t>6940556</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>㊥蛋蛋大</t>
+          <t>"Cry ab it林黛玉ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5620</t>
+          <t>7171</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>5958</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20199374</t>
+          <t>7025661</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RuanFan</t>
+          <t>"F ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7113</t>
+          <t>6091</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>51140</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6994</t>
+          <t>2914</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>934</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>32613475</t>
+          <t>8741713</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"李 无 善 德"</t>
+          <t xml:space="preserve">㊥大咖玩家ky </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6992</t>
+          <t>7163</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>5216</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31267627</t>
+          <t>9541747</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"㊥ Martin"</t>
+          <t>豹子头林冲</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6894</t>
+          <t>6165</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>2763</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25376635</t>
+          <t>11783968</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"sanchez ᶻᵍˣ"</t>
+          <t>F---119</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6880</t>
+          <t>6606</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>16294</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3946814</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"小瑩 潘"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6850</t>
+          <t>4798</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>12517</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8741713</t>
+          <t>14424176</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">㊥大咖玩家ky </t>
+          <t>天才少年老纪</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6810</t>
+          <t>5186</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27468237</t>
+          <t>16206490</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>佛系复仇者秀川</t>
+          <t>㊥Godcys</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6773</t>
+          <t>6238</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1820342</t>
+          <t>20199374</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>RuanFan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6530</t>
+          <t>7340</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>6125</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6427</t>
+          <t>6059</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2389</t>
+          <t>6761</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21735478</t>
+          <t>21345373</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>耀翔fly</t>
+          <t>林北不講武德</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6489</t>
+          <t>5968</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3286</t>
+          <t>6058</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>26588375</t>
+          <t>21665473</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>kusipao</t>
+          <t>"Dog Gamedesiger"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6306</t>
+          <t>6067</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3357</t>
+          <t>3192</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>29211638</t>
+          <t>21735478</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"㊥ PhononDisperse"</t>
+          <t>耀翔fly</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6293</t>
+          <t>6509</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3386</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1951758</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>我來找你了</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6289</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>33656016</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥☆梅海听雪☆</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6253</t>
+          <t>6238</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>938</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>38711610</t>
+          <t>25376635</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>心灵有为</t>
+          <t>"sanchez ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6156</t>
+          <t>7162</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4273</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9541747</t>
+          <t>26280580</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>豹子头林冲</t>
+          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6140</t>
+          <t>6385</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4345</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>28387448</t>
+          <t>26424998</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>☜⊙‖⊙☞</t>
+          <t>"Smok3y 1nOnly"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6128</t>
+          <t>7222</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4480</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3477306</t>
+          <t>26588375</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"MeGa Tsai"</t>
+          <t>kusipao</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6107</t>
+          <t>6273</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4664</t>
+          <t>5301</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6081</t>
+          <t>6157</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>2478</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>21345373</t>
+          <t>27468237</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>林北不講武德</t>
+          <t>佛系复仇者秀川</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>6670</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4873</t>
+          <t>4944</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26280580</t>
+          <t>28387448</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>꧁S.TIGRESS꧂ᶻᵍˣ</t>
+          <t>☜⊙‖⊙☞</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6051</t>
+          <t>6201</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4997</t>
+          <t>4715</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6032</t>
+          <t>6239</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5308</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>30411791</t>
+          <t>29211638</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
+          <t>"㊥ PhononDisperse"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5991</t>
+          <t>6503</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>6453</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>29729468</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"风神舞动 WDᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5896</t>
+          <t>6040</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5994</t>
+          <t>17880</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>44955827</t>
+          <t>29861826</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>丶小阿狸丿</t>
+          <t>★★★Eric★★★</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>4689</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6681</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>29729468</t>
+          <t>30411791</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"风神舞动 WDᶻᵍˣ"</t>
+          <t>"㊥Ⓩ GOÐAFRÆÐI ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5780</t>
+          <t>6401</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>5055</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>31217211</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>解憂雜貨鋪㊥</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5724</t>
+          <t>6188</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7904</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7025661</t>
+          <t>31267627</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"F ᶻᵍˣ"</t>
+          <t>"㊥ Martin"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>7207</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10076</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4229136</t>
+          <t>32613475</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"totoro wu"</t>
+          <t>"李 无 善 德"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5302</t>
+          <t>7251</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11647</t>
+          <t>3392</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14424176</t>
+          <t>33656016</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天才少年老纪</t>
+          <t>㊥☆梅海听雪☆</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5156</t>
+          <t>6491</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12162</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>38711610</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>心灵有为</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5108</t>
+          <t>6306</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>15145</t>
+          <t>8337</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>43800641</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>㊥蛋蛋大</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4827</t>
+          <t>5624</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>18026</t>
+          <t>5238</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>29861826</t>
+          <t>44955827</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>★★★Eric★★★</t>
+          <t>丶小阿狸丿</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>6162</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>31017</t>
+          <t>31691</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1584,17 +1584,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>50786</t>
+          <t>2866</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2914</t>
+          <t>6578</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>11332</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,51 +1631,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5288</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>11025</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>47928278</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"落日幻影 哈哈哈"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5215</t>
+          <t>6992</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16878</t>
+          <t>50595</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>29565</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"aK.j Zhong ㊥"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4691</t>
+          <t>2938</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7967</t>
+          <t>48608</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>13738844</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Chen Hao"</t>
+          <t>"㊖TW9 百媚生"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5558</t>
+          <t>3028</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9813</t>
+          <t>47088</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5326</t>
+          <t>3105</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10042</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>42434117</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>㊥有双飞鸟</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5304</t>
+          <t>6088</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12490</t>
+          <t>19205</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5074</t>
+          <t>4613</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>14504</t>
+          <t>15608</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4880</t>
+          <t>4855</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>16719</t>
+          <t>7468</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4702</t>
+          <t>5779</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>17049</t>
+          <t>14780</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>4932</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>17578</t>
+          <t>10151</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>5397</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>28056</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>12639656</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"wu huang"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>40729</t>
+          <t>7784</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>43812707</t>
+          <t>13738844</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>bbtt</t>
+          <t>"Chen Hao"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>5720</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>32147</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>14110169</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>66666zgx</t>
+          <t>"Pasiony CANQ"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6665</t>
+          <t>3840</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3625</t>
+          <t>56819</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16206490</t>
+          <t>22161051</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>㊥Godcys</t>
+          <t>Botz5</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6248</t>
+          <t>2715</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5796</t>
+          <t>10447</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>22885399</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>余文琪</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5917</t>
+          <t>5367</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7952</t>
+          <t>2585</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>66666zgx</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>6647</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9770</t>
+          <t>42544</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5330</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10724</t>
+          <t>17624</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5243</t>
+          <t>4704</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>11489</t>
+          <t>20734</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22885399</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>余文琪</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5174</t>
+          <t>4534</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>14862</t>
+          <t>35716</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>32478707</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Bt So"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4850</t>
+          <t>3648</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>15968</t>
+          <t>11122</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4758</t>
+          <t>5307</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16543</t>
+          <t>29990</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>38561634</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Ambrose PT"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4714</t>
+          <t>3938</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>19286</t>
+          <t>18194</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4551</t>
+          <t>4670</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>19993</t>
+          <t>21270</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4514</t>
+          <t>4510</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20342</t>
+          <t>20170</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4495</t>
+          <t>4560</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>31078</t>
+          <t>8886</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38561634</t>
+          <t>42434117</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Ambrose PT"</t>
+          <t>㊥有双飞鸟</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3856</t>
+          <t>5556</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>32718</t>
+          <t>41215</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>44789201</t>
+          <t>43812707</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华夏四川广安</t>
+          <t>bbtt</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3777</t>
+          <t>3383</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>35153</t>
+          <t>33484</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>32478707</t>
+          <t>44789201</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Bt So"</t>
+          <t>华夏四川广安</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>3773</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>36872</t>
+          <t>10094</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3564</t>
+          <t>5402</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>38576</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>14110169</t>
+          <t>47758619</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"Pasiony CANQ"</t>
+          <t>"㊥ Moon ㊥"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3483</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>40090</t>
+          <t>10093</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3411</t>
+          <t>5395</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>42101</t>
+          <t>52873</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>2846</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>47193</t>
+          <t>12473</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3079</t>
+          <t>5191</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>47319</t>
+          <t>12375</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>5195</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>49306</t>
+          <t>15861</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>54714516</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ёмιいч</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2979</t>
+          <t>4834</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>49540</t>
+          <t>49398</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>54714516</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"㊖TW9 百媚生"</t>
+          <t>ёмιいч</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2603,24 +2603,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>2991</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>50229</t>
+          <t>27136</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>29565</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"aK.j Zhong ㊥"</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2938</t>
+          <t>4081</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>51184</t>
+          <t>31863</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2899</t>
+          <t>3852</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>52743</t>
+          <t>13016</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>5123</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>53436</t>
+          <t>47612</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>3077</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>56294</t>
+          <t>37566</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>22161051</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Botz5</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>3552</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>49744</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>12639656</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"wu huang"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2976</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>49074</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>47758619</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"㊥ Moon ㊥"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3006</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>16441</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4721</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>62827</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2562</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21490</t>
+          <t>43518</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>3284</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>23914</t>
+          <t>33052</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"慶頴 謝"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4248</t>
+          <t>3798</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>25353</t>
+          <t>62010</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>5367482</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>Ігор</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4155</t>
+          <t>2578</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>27086</t>
+          <t>31831</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>3853</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>30094</t>
+          <t>47047</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>3108</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>32861</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3769</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>34870</t>
+          <t>26597</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>18082891</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3662</t>
+          <t>4113</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52297</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,14 +3062,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2869</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>15258</t>
+          <t>16084</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3096,17 +3096,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>26110</t>
+          <t>24871</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4227</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>30673</t>
+          <t>31150</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3874</t>
+          <t>3884</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30692</t>
+          <t>17198</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3873</t>
+          <t>4732</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>31362</t>
+          <t>21666</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>4481</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>32033</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"慶頴 謝"</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>34079</t>
+          <t>63268</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>2553</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>34230</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3696</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>37672</t>
+          <t>26261</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>4134</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>38044</t>
+          <t>33603</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3507</t>
+          <t>3767</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>38523</t>
+          <t>54085</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>47227626</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>Player-47227626</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3485</t>
+          <t>2803</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>38984</t>
+          <t>33660</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47244896</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Dropthebeat</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3461</t>
+          <t>3764</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>39700</t>
+          <t>38507</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3428</t>
+          <t>3505</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>43185</t>
+          <t>34752</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3275</t>
+          <t>3700</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>43278</t>
+          <t>43134</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>3301</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>44555</t>
+          <t>75165</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>52792063</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>"Tramaine Dowlen"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>2306</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>44599</t>
+          <t>40185</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>3427</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>46629</t>
+          <t>29964</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>3939</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>47529</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3063</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>51146</t>
+          <t>23223</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>4345</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>52957</t>
+          <t>63393</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2830</t>
+          <t>2550</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>54506</t>
+          <t>30309</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2777</t>
+          <t>3920</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>61278</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>61140</t>
+          <t>37316</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>3564</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>62055</t>
+          <t>39405</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>3463</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>62695</t>
+          <t>31761</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2558</t>
+          <t>3856</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>62903</t>
+          <t>38217</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>3517</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>73666</t>
+          <t>73959</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3825,17 +3825,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>74808</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2307</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3879,17 +3879,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48415</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3037</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>61577</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2586</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53525</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2822</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>44794</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3226</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>46864</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>青龙偃月灯</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,24 +4007,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3110</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>50860</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4034,24 +4034,24 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>44830</t>
+          <t>50645</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>2935</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>57703</t>
+          <t>58052</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4095,7 +4095,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>62796</t>
+          <t>63113</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4122,7 +4122,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>70839</t>
+          <t>70261</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>2432</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>75619</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2287</t>
+          <t>1438</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>114670</t>
+          <t>45937</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>3167</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>125896</t>
+          <t>75261</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>2303</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>184709</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,24 +4250,24 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>1524</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>262447</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,24 +4277,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1027</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>4659</t>
+          <t>31941</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4304,24 +4304,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>6081</t>
+          <t>3849</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>31197</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4331,24 +4331,24 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>3849</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>50693</t>
+          <t>65569</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4358,24 +4358,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2918</t>
+          <t>2511</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>65272</t>
+          <t>6187</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4385,24 +4385,24 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>6052</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53599</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,24 +4412,24 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2820</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4446,17 +4446,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4473,7 +4473,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4500,17 +4500,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>57090</t>
+          <t>51089</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2695</t>
+          <t>2917</t>
         </is>
       </c>
     </row>

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25251</t>
+          <t>25250</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -423,7 +423,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -450,7 +450,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2281</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3935</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1769</t>
+          <t>1780</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9319</t>
+          <t>9326</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7164</t>
+          <t>7192</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>819</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5958</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>852</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5216</t>
+          <t>5224</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2763</t>
+          <t>2769</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -774,7 +774,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16294</t>
+          <t>16299</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12517</t>
+          <t>12522</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4729</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6125</t>
+          <t>6133</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6761</t>
+          <t>6764</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -936,7 +936,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6058</t>
+          <t>6065</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3192</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>858</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1071,7 +1071,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3859</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4646</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5301</t>
+          <t>5307</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,7 +1179,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4944</t>
+          <t>4976</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>4720</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3253</t>
+          <t>3258</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1287,7 +1287,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6453</t>
+          <t>6307</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1314,7 +1314,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>17880</t>
+          <t>17886</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3760</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5055</t>
+          <t>5067</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1395,7 +1395,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1422,7 +1422,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3392</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4492</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1503,7 +1503,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8337</t>
+          <t>8347</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1530,7 +1530,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5238</t>
+          <t>5256</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>31691</t>
+          <t>31700</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2866</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1611,7 +1611,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>11332</t>
+          <t>11338</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>50595</t>
+          <t>50594</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1692,7 +1692,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>48608</t>
+          <t>48609</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>47088</t>
+          <t>47091</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1746,7 +1746,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>5898</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>19205</t>
+          <t>19206</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>15608</t>
+          <t>15610</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7468</t>
+          <t>7470</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1854,7 +1854,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>14780</t>
+          <t>14787</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1935,7 +1935,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7784</t>
+          <t>7787</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1962,7 +1962,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>32147</t>
+          <t>32145</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2016,7 +2016,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10447</t>
+          <t>10456</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2043,7 +2043,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2585</t>
+          <t>2588</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2070,7 +2070,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>42544</t>
+          <t>42547</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>17624</t>
+          <t>17628</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2124,7 +2124,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20734</t>
+          <t>20742</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>29990</t>
+          <t>29988</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>18194</t>
+          <t>18195</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2259,7 +2259,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>21270</t>
+          <t>21276</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>8886</t>
+          <t>8788</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2340,7 +2340,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>41215</t>
+          <t>41217</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2367,7 +2367,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>33484</t>
+          <t>33492</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2394,7 +2394,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10094</t>
+          <t>10093</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>10093</t>
+          <t>10171</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2502,7 +2502,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>12473</t>
+          <t>12479</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>12375</t>
+          <t>12445</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2556,7 +2556,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>15861</t>
+          <t>15860</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2583,7 +2583,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>49398</t>
+          <t>49399</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2610,7 +2610,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>27136</t>
+          <t>27135</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>31863</t>
+          <t>31873</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2691,7 +2691,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>47612</t>
+          <t>47616</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2718,7 +2718,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>37566</t>
+          <t>37564</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>49744</t>
+          <t>49748</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2772,7 +2772,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>49074</t>
+          <t>49077</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2826,7 +2826,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>62827</t>
+          <t>62830</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2853,7 +2853,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>43518</t>
+          <t>43524</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2880,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>33052</t>
+          <t>33053</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2907,7 +2907,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>62010</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2934,7 +2934,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>31831</t>
+          <t>31842</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2961,7 +2961,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>47047</t>
+          <t>47051</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3015,7 +3015,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>26597</t>
+          <t>26599</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3042,7 +3042,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>52297</t>
+          <t>52296</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3069,7 +3069,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>16084</t>
+          <t>16085</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3096,7 +3096,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>24871</t>
+          <t>24876</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3123,7 +3123,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>31150</t>
+          <t>31152</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3150,7 +3150,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>17198</t>
+          <t>17207</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3177,7 +3177,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>21666</t>
+          <t>21673</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3285,7 +3285,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>26261</t>
+          <t>26262</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3312,7 +3312,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>33603</t>
+          <t>33608</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3339,7 +3339,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>54085</t>
+          <t>54086</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3366,7 +3366,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>33660</t>
+          <t>33663</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3393,7 +3393,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>38507</t>
+          <t>38508</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3420,7 +3420,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>34752</t>
+          <t>34751</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3474,7 +3474,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>75165</t>
+          <t>75168</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3501,7 +3501,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>40185</t>
+          <t>40180</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3528,7 +3528,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>29964</t>
+          <t>29962</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3582,7 +3582,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>23223</t>
+          <t>23229</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3609,7 +3609,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>63393</t>
+          <t>63391</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>30309</t>
+          <t>30307</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>31761</t>
+          <t>31772</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3879,7 +3879,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>48415</t>
+          <t>48417</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3906,7 +3906,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>61577</t>
+          <t>61576</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3933,7 +3933,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>53525</t>
+          <t>53526</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3960,7 +3960,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>44794</t>
+          <t>44796</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3987,7 +3987,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>46864</t>
+          <t>46991</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4041,7 +4041,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>50645</t>
+          <t>50646</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4068,7 +4068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>58052</t>
+          <t>58054</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4095,7 +4095,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>63113</t>
+          <t>63115</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4122,7 +4122,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>70261</t>
+          <t>70263</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4176,7 +4176,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>45937</t>
+          <t>45940</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4203,7 +4203,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>75261</t>
+          <t>75264</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4284,7 +4284,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>31941</t>
+          <t>31946</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4338,7 +4338,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>65569</t>
+          <t>65570</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4365,7 +4365,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>6187</t>
+          <t>6192</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -460,7 +460,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摸鱼者三战</t>
+          <t>摸鱼爱好者三战</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>青龙偃月灯</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">

--- a/Season_Trophies/84.xlsx
+++ b/Season_Trophies/84.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2799,17 +2799,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>1673125</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>"birrkoff1 ᴿᴵᴾ"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6575</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>62830</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>2380957</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"ᴱᵁᴿ Biggymike ᶰᶫ"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2562</t>
+          <t>6679</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>43524</t>
+          <t>2031</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>3165166</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>EurPapaStressato</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3284</t>
+          <t>6904</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>33053</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>4388412</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"慶頴 謝"</t>
+          <t>"RIP 12ThSt NXS"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3798</t>
+          <t>6349</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>2676</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5367482</t>
+          <t>4705659</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ігор</t>
+          <t>"EUR Broken Arrow"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>6745</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>31842</t>
+          <t>2036</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>4977474</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Wisam2112</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>6897</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>47051</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>5093883</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>"Galadriel ᴱᵁᴿ"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>6930</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>5389668</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"Alvils ᴱᵁᴿ"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6460</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>26599</t>
+          <t>2654</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>18082891</t>
+          <t>5644133</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>"SilverHawk EUR"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3035,24 +3035,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4113</t>
+          <t>6745</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>52296</t>
+          <t>5452</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>6087115</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>"King Salomon ️"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3062,24 +3062,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>6198</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>16085</t>
+          <t>3526</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>25163202</t>
+          <t>6179013</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"sam yang"</t>
+          <t>"रहमत      सरकार"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3089,24 +3089,24 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4817</t>
+          <t>6559</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>24876</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>7350052</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>kummituskäedᴱᵁᴿ</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3116,24 +3116,24 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4227</t>
+          <t>6567</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>31152</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>7488623</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"RAGNARⁿ ╳ ˢ"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3143,24 +3143,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3884</t>
+          <t>6738</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>17207</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>8223979</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>Lastangryman</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4732</t>
+          <t>7008</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>21673</t>
+          <t>2077</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>8658951</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"EUR gabriele  b"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,24 +3197,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4481</t>
+          <t>6881</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3216</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>9161108</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>"ᴱᵁᴿ Rankos ᶰᶫ"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6618</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>63268</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>9178517</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"julo2000 AOW"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3251,24 +3251,24 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>6692</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2196</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>9730363</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>EURythmics</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6863</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>26262</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>10148497</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Cobraⁿˣˢ</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4134</t>
+          <t>6909</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>33608</t>
+          <t>3258</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>10960737</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"Klebsiella P"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3332,24 +3332,24 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3767</t>
+          <t>6584</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>54086</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>47227626</t>
+          <t>11511350</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Player-47227626</t>
+          <t>"Perrin Aybara"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3359,24 +3359,24 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>6971</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>33663</t>
+          <t>4271</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>47244896</t>
+          <t>12011386</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Dropthebeat</t>
+          <t>"NXS4  paulosilva"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3386,24 +3386,24 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3764</t>
+          <t>6420</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>38508</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>13102210</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>SirBearⱽᴱᶜᴼᴳEUR</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3413,24 +3413,24 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3505</t>
+          <t>6542</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>34751</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>13589486</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"EUR vytelis"</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>6469</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>43134</t>
+          <t>2798</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>13602346</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"EUR•Kungfu Jesus"</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3467,24 +3467,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3301</t>
+          <t>6719</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>75168</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>52792063</t>
+          <t>13957661</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Tramaine Dowlen"</t>
+          <t>"ᴱᵁᴿ MIROZ ᴵᵀᴬ"</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3494,24 +3494,24 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2306</t>
+          <t>6537</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>40180</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>15409989</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"WarDan ⁿ ╳ ˢ EUR"</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3521,24 +3521,24 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3427</t>
+          <t>6654</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>29962</t>
+          <t>2945</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>15934629</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"ᴿᴵᴾStingray ᴱᵁᴿ"</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>3939</t>
+          <t>6684</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2557</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>16334976</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"vanneurk - EUR"</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3575,24 +3575,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6778</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>23229</t>
+          <t>9999</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>16723167</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Misza</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3602,24 +3602,24 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>4345</t>
+          <t>5673</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>63391</t>
+          <t>2486</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>18899977</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"Dusan MNE"</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3629,24 +3629,24 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>6704</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>30307</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>19074651</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"EUR ThugLife ⁠ "</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3656,24 +3656,24 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>6536</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>20040315</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>ᴱᵁᴿMethadataᴿᴵᴾ</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3683,24 +3683,24 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7104</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>37316</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>21518036</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"Eᑌᖇ ᒪᔕᗪ TᖇIᑭ"</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3710,24 +3710,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3564</t>
+          <t>6644</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>39405</t>
+          <t>3057</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>22018497</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>"conway EUR"</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>6659</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>31772</t>
+          <t>2590</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>23803177</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>"Stain  SIT  Tha"</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3764,24 +3764,24 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>3856</t>
+          <t>6767</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>38217</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>25045159</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"EUR marius army"</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3791,24 +3791,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3517</t>
+          <t>6459</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>73959</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>25735452</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>"Tanvir nxs"</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3818,24 +3818,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2336</t>
+          <t>6641</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1590</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>26012001</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"OlivaFritta ᴱᵁᴿ"</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6995</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>839</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>26910302</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"ᴱᵁᴿ Caribrain ᶰᶫ"</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7258</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>48417</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>27402692</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"Vec Fontaine"</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3899,24 +3899,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>6755</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>61576</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>27636303</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>ᴱᵁᴿStressatoᴵᵀᴬ</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3926,24 +3926,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>6801</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>53526</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>31723587</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>"Hussain VEC"</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3953,24 +3953,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2822</t>
+          <t>6490</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>44796</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>36057737</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>ᴿᴵᴾObliterateᴱᵁᴿ</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3980,24 +3980,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>3226</t>
+          <t>6909</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>46991</t>
+          <t>3539</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>38867140</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"EUR harleyjoebob"</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4007,132 +4007,132 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>6549</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>39060442</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>"Ronny Yen  ⁿ ╳ ˢ"</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>6676</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>50646</t>
+          <t>4766</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>45410553</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Niero</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2935</t>
+          <t>6308</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>58054</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>47772380</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"EUR FeistyPickle"</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2676</t>
+          <t>6978</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>63115</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>54409793</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>Bare_North</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>6651</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>70263</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4142,24 +4142,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2432</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50646</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4169,24 +4169,24 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>2935</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>45940</t>
+          <t>58054</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4196,24 +4196,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>3167</t>
+          <t>2676</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>75264</t>
+          <t>63115</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4223,24 +4223,24 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2556</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70263</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>2432</t>
         </is>
       </c>
     </row>
@@ -4262,12 +4262,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4277,132 +4277,132 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>1438</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>31946</t>
+          <t>45940</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>3849</t>
+          <t>3167</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75264</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2303</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>65570</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>1524</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>6192</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>6052</t>
+          <t>1027</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>53599</t>
+          <t>31946</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>3849</t>
         </is>
       </c>
     </row>
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4446,17 +4446,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65570</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4466,24 +4466,24 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2511</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6192</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4493,32 +4493,140 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6052</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>53599</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>10636651</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>"Ismail Aflou"</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2820</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>12648101</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>"player 198827"</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>15755724</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>"Last Good"</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
           <t>51089</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>41848598</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>国家一级保护沙雕</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2917</t>
         </is>
